--- a/单词/1.16 list11-15.xlsx
+++ b/单词/1.16 list11-15.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\GRE-Fight\单词\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRE-Fight\单词\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="1047">
   <si>
     <t>dross</t>
   </si>
@@ -17124,6 +17124,114 @@
       </rPr>
       <t xml:space="preserve"> 必要的，紧急的</t>
     </r>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
@@ -17658,8 +17766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192"/>
+    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
+      <selection activeCell="A501" sqref="A501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="150" customHeight="1"/>
@@ -17682,7 +17790,7 @@
       </c>
       <c r="D1" s="8">
         <f t="shared" ref="D1:D64" ca="1" si="0">RAND()*1</f>
-        <v>0.32915831198754752</v>
+        <v>0.8193416229683238</v>
       </c>
     </row>
     <row r="2" spans="1:51" s="1" customFormat="1" ht="150" customHeight="1">
@@ -17697,7 +17805,7 @@
       </c>
       <c r="D2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14401546943932853</v>
+        <v>0.51015973928317737</v>
       </c>
     </row>
     <row r="3" spans="1:51" s="1" customFormat="1" ht="150" customHeight="1">
@@ -17710,7 +17818,7 @@
       </c>
       <c r="D3" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4404693538407779</v>
+        <v>0.70104098457751551</v>
       </c>
     </row>
     <row r="4" spans="1:51" s="1" customFormat="1" ht="150" customHeight="1">
@@ -17723,7 +17831,7 @@
       </c>
       <c r="D4" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19127967760398701</v>
+        <v>0.46662185601034423</v>
       </c>
     </row>
     <row r="5" spans="1:51" s="2" customFormat="1" ht="150" customHeight="1">
@@ -17738,7 +17846,7 @@
       </c>
       <c r="D5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5389764785197364</v>
+        <v>0.28468432250914599</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -17798,7 +17906,7 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64548827398473518</v>
+        <v>0.31501965667768739</v>
       </c>
     </row>
     <row r="7" spans="1:51" s="2" customFormat="1" ht="150" customHeight="1">
@@ -17813,7 +17921,7 @@
       </c>
       <c r="D7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8519295016149147E-2</v>
+        <v>0.91196830128926498</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -17875,7 +17983,7 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99800433851021053</v>
+        <v>0.28244067714560916</v>
       </c>
     </row>
     <row r="9" spans="1:51" ht="150" customHeight="1">
@@ -17890,7 +17998,7 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51667796762018248</v>
+        <v>0.40587215517177688</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -17952,7 +18060,7 @@
       </c>
       <c r="D10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8442265084271603E-2</v>
+        <v>0.224174420992582</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -18012,7 +18120,7 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89923190712223067</v>
+        <v>0.23792641406394521</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -18072,7 +18180,7 @@
       </c>
       <c r="D12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14008602115158042</v>
+        <v>0.7873531265811512</v>
       </c>
     </row>
     <row r="13" spans="1:51" ht="150" customHeight="1">
@@ -18087,7 +18195,7 @@
       </c>
       <c r="D13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80199283782451602</v>
+        <v>0.49924317613308777</v>
       </c>
     </row>
     <row r="14" spans="1:51" ht="150" customHeight="1">
@@ -18102,7 +18210,7 @@
       </c>
       <c r="D14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28029662525150301</v>
+        <v>0.43339932253279789</v>
       </c>
     </row>
     <row r="15" spans="1:51" ht="150" customHeight="1">
@@ -18117,7 +18225,7 @@
       </c>
       <c r="D15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66709785756186746</v>
+        <v>6.702350770486587E-2</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -18177,7 +18285,7 @@
       </c>
       <c r="D16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16112860370674909</v>
+        <v>0.93770689433563226</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="150" customHeight="1">
@@ -18192,7 +18300,7 @@
       </c>
       <c r="D17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1318576114310821</v>
+        <v>0.22535220051952742</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="150" customHeight="1">
@@ -18207,7 +18315,7 @@
       </c>
       <c r="D18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86771960280965676</v>
+        <v>0.60312749396003329</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="150" customHeight="1">
@@ -18222,7 +18330,7 @@
       </c>
       <c r="D19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70474423772039907</v>
+        <v>0.75358263645093204</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="150" customHeight="1">
@@ -18235,7 +18343,7 @@
       </c>
       <c r="D20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96024158683106453</v>
+        <v>0.5517010672756355</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="150" customHeight="1">
@@ -18248,7 +18356,7 @@
       </c>
       <c r="D21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76805816083868295</v>
+        <v>0.55455683216485019</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="150" customHeight="1">
@@ -18263,7 +18371,7 @@
       </c>
       <c r="D22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90872359520624624</v>
+        <v>5.2134980122108376E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="150" customHeight="1">
@@ -18276,7 +18384,7 @@
       </c>
       <c r="D23" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86060472412758249</v>
+        <v>0.54403701947961391</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="150" customHeight="1">
@@ -18291,7 +18399,7 @@
       </c>
       <c r="D24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45543268600295639</v>
+        <v>0.63725561993131985</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="150" customHeight="1">
@@ -18306,7 +18414,7 @@
       </c>
       <c r="D25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1435556013906637</v>
+        <v>0.98767547511744547</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="150" customHeight="1">
@@ -18321,7 +18429,7 @@
       </c>
       <c r="D26" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35158591704544617</v>
+        <v>0.5062977918426429</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="150" customHeight="1">
@@ -18336,7 +18444,7 @@
       </c>
       <c r="D27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76134531638123182</v>
+        <v>0.80072110575570388</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="150" customHeight="1">
@@ -18351,7 +18459,7 @@
       </c>
       <c r="D28" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6464893385946876</v>
+        <v>0.55345720342408689</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="150" customHeight="1">
@@ -18366,7 +18474,7 @@
       </c>
       <c r="D29" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7260766674386048E-2</v>
+        <v>0.25047990144214705</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="150" customHeight="1">
@@ -18381,7 +18489,7 @@
       </c>
       <c r="D30" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46067088400985479</v>
+        <v>0.92359133360764978</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="150" customHeight="1">
@@ -18396,7 +18504,7 @@
       </c>
       <c r="D31" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18989202452499809</v>
+        <v>0.66400299769414739</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="150" customHeight="1">
@@ -18409,7 +18517,7 @@
       </c>
       <c r="D32" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59648291348708105</v>
+        <v>0.82415747276380813</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="150" customHeight="1">
@@ -18424,7 +18532,7 @@
       </c>
       <c r="D33" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71545013861474194</v>
+        <v>0.62362921441575081</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="150" customHeight="1">
@@ -18439,7 +18547,7 @@
       </c>
       <c r="D34" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16504592679371655</v>
+        <v>4.1934992648991698E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="150" customHeight="1">
@@ -18454,7 +18562,7 @@
       </c>
       <c r="D35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92104528796068419</v>
+        <v>8.4829545204078372E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="150" customHeight="1">
@@ -18467,7 +18575,7 @@
       </c>
       <c r="D36" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29046664515573539</v>
+        <v>5.462424998910409E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="150" customHeight="1">
@@ -18482,7 +18590,7 @@
       </c>
       <c r="D37" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65548223717613707</v>
+        <v>2.0914237204314845E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="150" customHeight="1">
@@ -18497,7 +18605,7 @@
       </c>
       <c r="D38" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57520236601431463</v>
+        <v>0.58289742411172574</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="150" customHeight="1">
@@ -18512,7 +18620,7 @@
       </c>
       <c r="D39" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77232625738549743</v>
+        <v>0.64216523352038224</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="150" customHeight="1">
@@ -18525,7 +18633,7 @@
       </c>
       <c r="D40" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55037531589815514</v>
+        <v>0.17335237436580897</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="150" customHeight="1">
@@ -18540,7 +18648,7 @@
       </c>
       <c r="D41" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.266446193305375</v>
+        <v>0.4325035579096066</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="150" customHeight="1">
@@ -18555,7 +18663,7 @@
       </c>
       <c r="D42" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2513763757110864</v>
+        <v>0.40358828941053748</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="150" customHeight="1">
@@ -18570,7 +18678,7 @@
       </c>
       <c r="D43" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2694011527596305</v>
+        <v>8.3203600232857333E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="150" customHeight="1">
@@ -18585,7 +18693,7 @@
       </c>
       <c r="D44" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0258099914036496E-2</v>
+        <v>0.97265193132319538</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="150" customHeight="1">
@@ -18600,7 +18708,7 @@
       </c>
       <c r="D45" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13053400687408712</v>
+        <v>0.81490633343967434</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="150" customHeight="1">
@@ -18615,7 +18723,7 @@
       </c>
       <c r="D46" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45682128663600463</v>
+        <v>0.63285613762782167</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="150" customHeight="1">
@@ -18630,7 +18738,7 @@
       </c>
       <c r="D47" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.268841635667044E-2</v>
+        <v>8.1335752625023572E-3</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="150" customHeight="1">
@@ -18645,7 +18753,7 @@
       </c>
       <c r="D48" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16795888167249828</v>
+        <v>0.82348617618091369</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="150" customHeight="1">
@@ -18658,7 +18766,7 @@
       </c>
       <c r="D49" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27721143208333643</v>
+        <v>0.23834827233204148</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="150" customHeight="1">
@@ -18673,7 +18781,7 @@
       </c>
       <c r="D50" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89803871640526312</v>
+        <v>0.34704520559312968</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="150" customHeight="1">
@@ -18688,7 +18796,7 @@
       </c>
       <c r="D51" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75804557610697276</v>
+        <v>6.7354575736869871E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="150" customHeight="1">
@@ -18703,7 +18811,7 @@
       </c>
       <c r="D52" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24044864504679542</v>
+        <v>0.11939029595920414</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="150" customHeight="1">
@@ -18718,7 +18826,7 @@
       </c>
       <c r="D53" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.079024930698564E-2</v>
+        <v>9.0204016907233786E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="150" customHeight="1">
@@ -18733,7 +18841,7 @@
       </c>
       <c r="D54" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25735201433249011</v>
+        <v>3.1181771779543621E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="150" customHeight="1">
@@ -18748,7 +18856,7 @@
       </c>
       <c r="D55" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29358972333272859</v>
+        <v>0.94667707519061073</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="150" customHeight="1">
@@ -18763,7 +18871,7 @@
       </c>
       <c r="D56" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10180989464406498</v>
+        <v>0.20246974080832147</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="150" customHeight="1">
@@ -18778,7 +18886,7 @@
       </c>
       <c r="D57" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13174413731386703</v>
+        <v>0.65015489190897047</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="150" customHeight="1">
@@ -18793,7 +18901,7 @@
       </c>
       <c r="D58" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40323743999345907</v>
+        <v>0.42664600501522121</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="150" customHeight="1">
@@ -18806,7 +18914,7 @@
       </c>
       <c r="D59" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0276205564829128E-2</v>
+        <v>0.98915871441034031</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="150" customHeight="1">
@@ -18821,7 +18929,7 @@
       </c>
       <c r="D60" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65343911807455535</v>
+        <v>0.9720881518750607</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="150" customHeight="1">
@@ -18836,7 +18944,7 @@
       </c>
       <c r="D61" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91931820567323508</v>
+        <v>0.95516688002923678</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="150" customHeight="1">
@@ -18851,7 +18959,7 @@
       </c>
       <c r="D62" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37532936236164627</v>
+        <v>0.59848795592942483</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="150" customHeight="1">
@@ -18866,7 +18974,7 @@
       </c>
       <c r="D63" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66496397794883255</v>
+        <v>0.41723743883679387</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="150" customHeight="1">
@@ -18881,7 +18989,7 @@
       </c>
       <c r="D64" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23719236142534228</v>
+        <v>0.77675929501505225</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="150" customHeight="1">
@@ -18896,7 +19004,7 @@
       </c>
       <c r="D65" s="8">
         <f t="shared" ref="D65:D128" ca="1" si="1">RAND()*1</f>
-        <v>0.42374521415451727</v>
+        <v>0.82112082205426462</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="150" customHeight="1">
@@ -18911,7 +19019,7 @@
       </c>
       <c r="D66" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53827254633230048</v>
+        <v>0.35489421480769257</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="150" customHeight="1">
@@ -18926,7 +19034,7 @@
       </c>
       <c r="D67" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36787191225080096</v>
+        <v>0.78843878738351114</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="150" customHeight="1">
@@ -18941,7 +19049,7 @@
       </c>
       <c r="D68" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19006961974961489</v>
+        <v>0.30609161664106099</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="150" customHeight="1">
@@ -18956,7 +19064,7 @@
       </c>
       <c r="D69" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57895164198074256</v>
+        <v>0.92132766916010567</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="150" customHeight="1">
@@ -18971,7 +19079,7 @@
       </c>
       <c r="D70" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58979042032133422</v>
+        <v>5.4927135411251049E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="150" customHeight="1">
@@ -18986,7 +19094,7 @@
       </c>
       <c r="D71" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44439760807073658</v>
+        <v>0.22342095661214845</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="150" customHeight="1">
@@ -19001,7 +19109,7 @@
       </c>
       <c r="D72" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.788077730576612E-2</v>
+        <v>0.35705479193761946</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="150" customHeight="1">
@@ -19016,7 +19124,7 @@
       </c>
       <c r="D73" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5379746563427616E-2</v>
+        <v>0.54890334632740145</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="150" customHeight="1">
@@ -19031,7 +19139,7 @@
       </c>
       <c r="D74" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90894962444525507</v>
+        <v>0.25609624261782449</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="150" customHeight="1">
@@ -19046,7 +19154,7 @@
       </c>
       <c r="D75" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91160873811119769</v>
+        <v>0.37470063712680535</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="150" customHeight="1">
@@ -19061,7 +19169,7 @@
       </c>
       <c r="D76" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31023952954187572</v>
+        <v>0.40743760610447266</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="150" customHeight="1">
@@ -19076,7 +19184,7 @@
       </c>
       <c r="D77" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46301956862639571</v>
+        <v>0.1849544504541264</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="150" customHeight="1">
@@ -19089,7 +19197,7 @@
       </c>
       <c r="D78" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69103691704911996</v>
+        <v>0.59766210559125055</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="150" customHeight="1">
@@ -19102,7 +19210,7 @@
       </c>
       <c r="D79" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56924843837799544</v>
+        <v>0.54429793442371299</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="150" customHeight="1">
@@ -19117,7 +19225,7 @@
       </c>
       <c r="D80" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16614896223057096</v>
+        <v>0.17968506141631391</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="150" customHeight="1">
@@ -19130,7 +19238,7 @@
       </c>
       <c r="D81" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80152928058935657</v>
+        <v>0.14467646334251527</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="150" customHeight="1">
@@ -19145,7 +19253,7 @@
       </c>
       <c r="D82" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98799234953423032</v>
+        <v>8.1238389645427178E-3</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="150" customHeight="1">
@@ -19160,7 +19268,7 @@
       </c>
       <c r="D83" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1134553232470169</v>
+        <v>0.7490168264254583</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="150" customHeight="1">
@@ -19175,7 +19283,7 @@
       </c>
       <c r="D84" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66441241344653823</v>
+        <v>0.48538423547915677</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="150" customHeight="1">
@@ -19190,7 +19298,7 @@
       </c>
       <c r="D85" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.131877533382323E-2</v>
+        <v>0.89630855681331578</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="150" customHeight="1">
@@ -19205,7 +19313,7 @@
       </c>
       <c r="D86" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78458022413726547</v>
+        <v>0.4494581200597898</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="150" customHeight="1">
@@ -19220,7 +19328,7 @@
       </c>
       <c r="D87" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10566085696925742</v>
+        <v>0.18073275607629358</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="150" customHeight="1">
@@ -19235,7 +19343,7 @@
       </c>
       <c r="D88" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10485740886672468</v>
+        <v>0.83829965111493965</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="150" customHeight="1">
@@ -19250,7 +19358,7 @@
       </c>
       <c r="D89" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50824024162452164</v>
+        <v>0.57970821136171435</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="150" customHeight="1">
@@ -19265,7 +19373,7 @@
       </c>
       <c r="D90" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72444327474208836</v>
+        <v>0.42725556462371883</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="150" customHeight="1">
@@ -19280,7 +19388,7 @@
       </c>
       <c r="D91" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12651974824343071</v>
+        <v>0.77116521820049988</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="150" customHeight="1">
@@ -19295,7 +19403,7 @@
       </c>
       <c r="D92" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51729211628762928</v>
+        <v>0.77321794038653124</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="150" customHeight="1">
@@ -19310,7 +19418,7 @@
       </c>
       <c r="D93" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93065698634145322</v>
+        <v>0.40495362163357584</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="150" customHeight="1">
@@ -19325,7 +19433,7 @@
       </c>
       <c r="D94" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26892080259232598</v>
+        <v>0.44218137236270505</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="150" customHeight="1">
@@ -19340,7 +19448,7 @@
       </c>
       <c r="D95" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43506545373052674</v>
+        <v>0.87928540715742343</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="150" customHeight="1">
@@ -19353,7 +19461,7 @@
       </c>
       <c r="D96" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87116760176880847</v>
+        <v>0.20871858996719339</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="150" customHeight="1">
@@ -19368,7 +19476,7 @@
       </c>
       <c r="D97" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10231102850898732</v>
+        <v>7.8989442582674596E-2</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="150" customHeight="1">
@@ -19383,7 +19491,7 @@
       </c>
       <c r="D98" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45429623266017238</v>
+        <v>9.7912633192112075E-3</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="150" customHeight="1">
@@ -19398,7 +19506,7 @@
       </c>
       <c r="D99" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15405269467736105</v>
+        <v>0.52375116044905368</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="150" customHeight="1">
@@ -19411,7 +19519,7 @@
       </c>
       <c r="D100" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1812523207266864</v>
+        <v>0.36502937584195516</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="150" customHeight="1">
@@ -19426,7 +19534,7 @@
       </c>
       <c r="D101" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26376864443874948</v>
+        <v>0.40514837732263576</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="150" customHeight="1">
@@ -19441,7 +19549,7 @@
       </c>
       <c r="D102" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95322515578074141</v>
+        <v>0.52823299545831981</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="150" customHeight="1">
@@ -19456,7 +19564,7 @@
       </c>
       <c r="D103" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3671237910446089</v>
+        <v>0.84245915436015328</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="150" customHeight="1">
@@ -19471,7 +19579,7 @@
       </c>
       <c r="D104" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24433473265696604</v>
+        <v>0.33761723525699783</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="150" customHeight="1">
@@ -19484,7 +19592,7 @@
       </c>
       <c r="D105" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55041942071937422</v>
+        <v>0.20882740229367458</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="150" customHeight="1">
@@ -19499,7 +19607,7 @@
       </c>
       <c r="D106" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10432200056800067</v>
+        <v>0.7516695953453062</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="150" customHeight="1">
@@ -19514,7 +19622,7 @@
       </c>
       <c r="D107" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43674586751068512</v>
+        <v>0.71469349376470837</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="150" customHeight="1">
@@ -19529,7 +19637,7 @@
       </c>
       <c r="D108" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96161550377239002</v>
+        <v>0.27188785436961094</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="150" customHeight="1">
@@ -19544,7 +19652,7 @@
       </c>
       <c r="D109" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74693294489160211</v>
+        <v>0.80338431507724173</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="2" customFormat="1" ht="150" customHeight="1">
@@ -19559,7 +19667,7 @@
       </c>
       <c r="D110" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87104146233554558</v>
+        <v>4.0363009264538285E-2</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="150" customHeight="1">
@@ -19574,7 +19682,7 @@
       </c>
       <c r="D111" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.985155518346108E-3</v>
+        <v>0.90473491938553308</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="150" customHeight="1">
@@ -19589,7 +19697,7 @@
       </c>
       <c r="D112" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20103310179502909</v>
+        <v>0.1082455571306945</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="150" customHeight="1">
@@ -19604,7 +19712,7 @@
       </c>
       <c r="D113" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33145705826500027</v>
+        <v>0.37827966006076119</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="150" customHeight="1">
@@ -19619,7 +19727,7 @@
       </c>
       <c r="D114" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98347502908515017</v>
+        <v>0.10310160204331098</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="150" customHeight="1">
@@ -19634,7 +19742,7 @@
       </c>
       <c r="D115" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22650849383569471</v>
+        <v>0.62102262139520592</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="150" customHeight="1">
@@ -19649,7 +19757,7 @@
       </c>
       <c r="D116" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14789371716163291</v>
+        <v>0.23862043858097215</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="150" customHeight="1">
@@ -19664,7 +19772,7 @@
       </c>
       <c r="D117" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15089773052968414</v>
+        <v>3.9650007843615831E-2</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="150" customHeight="1">
@@ -19679,7 +19787,7 @@
       </c>
       <c r="D118" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80218131522686265</v>
+        <v>0.30652710342348943</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="150" customHeight="1">
@@ -19694,7 +19802,7 @@
       </c>
       <c r="D119" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44316815438701451</v>
+        <v>0.9081179705260769</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="150" customHeight="1">
@@ -19709,7 +19817,7 @@
       </c>
       <c r="D120" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43233845080845523</v>
+        <v>0.72133292697246165</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="150" customHeight="1">
@@ -19722,7 +19830,7 @@
       </c>
       <c r="D121" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46352743858175838</v>
+        <v>1.6003637373348756E-2</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="150" customHeight="1">
@@ -19737,7 +19845,7 @@
       </c>
       <c r="D122" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91819489134345822</v>
+        <v>0.2090074681720766</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="150" customHeight="1">
@@ -19752,7 +19860,7 @@
       </c>
       <c r="D123" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96452556980524851</v>
+        <v>0.45033856376900461</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="150" customHeight="1">
@@ -19767,7 +19875,7 @@
       </c>
       <c r="D124" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77897160748007477</v>
+        <v>0.26026777863926276</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="150" customHeight="1">
@@ -19782,7 +19890,7 @@
       </c>
       <c r="D125" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78472868501979842</v>
+        <v>0.8082179626979501</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="150" customHeight="1">
@@ -19797,7 +19905,7 @@
       </c>
       <c r="D126" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48053376203411646</v>
+        <v>0.58283257860320881</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="150" customHeight="1">
@@ -19812,7 +19920,7 @@
       </c>
       <c r="D127" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27452206571727422</v>
+        <v>0.97930782361753843</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="150" customHeight="1">
@@ -19827,7 +19935,7 @@
       </c>
       <c r="D128" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5590808704331383E-2</v>
+        <v>0.78847301416608917</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="150" customHeight="1">
@@ -19842,7 +19950,7 @@
       </c>
       <c r="D129" s="8">
         <f t="shared" ref="D129:D192" ca="1" si="2">RAND()*1</f>
-        <v>0.27056869244385173</v>
+        <v>0.7154372946487112</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="150" customHeight="1">
@@ -19857,7 +19965,7 @@
       </c>
       <c r="D130" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34083302065133703</v>
+        <v>0.68808477059094131</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="150" customHeight="1">
@@ -19872,7 +19980,7 @@
       </c>
       <c r="D131" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24190652559336523</v>
+        <v>0.16733486363198879</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="150" customHeight="1">
@@ -19885,7 +19993,7 @@
       </c>
       <c r="D132" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39562978366406698</v>
+        <v>6.5091376564977876E-2</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="150" customHeight="1">
@@ -19900,7 +20008,7 @@
       </c>
       <c r="D133" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4141376313390555E-2</v>
+        <v>0.87181590486968652</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="150" customHeight="1">
@@ -19915,7 +20023,7 @@
       </c>
       <c r="D134" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12070595898140801</v>
+        <v>0.83634661492217321</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="150" customHeight="1">
@@ -19930,7 +20038,7 @@
       </c>
       <c r="D135" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94806029873415198</v>
+        <v>0.60088164026274116</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="150" customHeight="1">
@@ -19945,7 +20053,7 @@
       </c>
       <c r="D136" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33336046697314381</v>
+        <v>0.30510707172432994</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="150" customHeight="1">
@@ -19960,7 +20068,7 @@
       </c>
       <c r="D137" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10773892730474965</v>
+        <v>4.3369407960024864E-2</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="150" customHeight="1">
@@ -19973,7 +20081,7 @@
       </c>
       <c r="D138" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74397313607470561</v>
+        <v>0.3900758706735602</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="150" customHeight="1">
@@ -19988,7 +20096,7 @@
       </c>
       <c r="D139" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38174941733256473</v>
+        <v>0.99267214819864924</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="150" customHeight="1">
@@ -20003,7 +20111,7 @@
       </c>
       <c r="D140" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64124413281370995</v>
+        <v>0.36371632925993902</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="150" customHeight="1">
@@ -20018,7 +20126,7 @@
       </c>
       <c r="D141" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25737331942502828</v>
+        <v>0.47321337997671398</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="150" customHeight="1">
@@ -20033,7 +20141,7 @@
       </c>
       <c r="D142" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23836671110782215</v>
+        <v>0.33730694821261442</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="150" customHeight="1">
@@ -20048,7 +20156,7 @@
       </c>
       <c r="D143" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99185584561210038</v>
+        <v>0.81916265919564135</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="150" customHeight="1">
@@ -20063,7 +20171,7 @@
       </c>
       <c r="D144" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32671008006955837</v>
+        <v>0.98695325524859434</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="150" customHeight="1">
@@ -20078,7 +20186,7 @@
       </c>
       <c r="D145" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72032266016404445</v>
+        <v>0.82098012136300591</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="150" customHeight="1">
@@ -20093,7 +20201,7 @@
       </c>
       <c r="D146" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39969798109840671</v>
+        <v>0.20933673238070927</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="150" customHeight="1">
@@ -20106,7 +20214,7 @@
       </c>
       <c r="D147" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99239739184435283</v>
+        <v>0.49916068971061933</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="150" customHeight="1">
@@ -20121,7 +20229,7 @@
       </c>
       <c r="D148" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6.6636810352365128E-2</v>
+        <v>0.24537665007473664</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="150" customHeight="1">
@@ -20134,7 +20242,7 @@
       </c>
       <c r="D149" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53005221592985907</v>
+        <v>9.2856894159843661E-2</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="150" customHeight="1">
@@ -20147,7 +20255,7 @@
       </c>
       <c r="D150" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99337793162417243</v>
+        <v>0.10201373068413522</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="150" customHeight="1">
@@ -20162,7 +20270,7 @@
       </c>
       <c r="D151" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41051171146598564</v>
+        <v>0.17785251217837283</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="150" customHeight="1">
@@ -20175,7 +20283,7 @@
       </c>
       <c r="D152" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52063919223962296</v>
+        <v>0.53169216522415641</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="150" customHeight="1">
@@ -20188,7 +20296,7 @@
       </c>
       <c r="D153" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1652109324294645</v>
+        <v>0.67129892273698655</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="150" customHeight="1">
@@ -20203,7 +20311,7 @@
       </c>
       <c r="D154" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10569518594119487</v>
+        <v>0.26929421573241896</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="150" customHeight="1">
@@ -20216,7 +20324,7 @@
       </c>
       <c r="D155" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93979020284599801</v>
+        <v>0.95574782778182332</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="150" customHeight="1">
@@ -20229,7 +20337,7 @@
       </c>
       <c r="D156" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64897800456509513</v>
+        <v>0.27348862852175471</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="150" customHeight="1">
@@ -20242,7 +20350,7 @@
       </c>
       <c r="D157" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67597672149541044</v>
+        <v>0.68862033027129788</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="150" customHeight="1">
@@ -20257,7 +20365,7 @@
       </c>
       <c r="D158" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89791716982697134</v>
+        <v>0.54796102917866008</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="150" customHeight="1">
@@ -20272,7 +20380,7 @@
       </c>
       <c r="D159" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75652410247593571</v>
+        <v>0.78240648752183206</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="150" customHeight="1">
@@ -20287,7 +20395,7 @@
       </c>
       <c r="D160" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99318935877677617</v>
+        <v>0.9342858873886889</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="150" customHeight="1">
@@ -20302,7 +20410,7 @@
       </c>
       <c r="D161" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82799290144002702</v>
+        <v>9.1434272650610215E-2</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="150" customHeight="1">
@@ -20317,7 +20425,7 @@
       </c>
       <c r="D162" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49645903145808046</v>
+        <v>0.91190689244374723</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="150" customHeight="1">
@@ -20332,7 +20440,7 @@
       </c>
       <c r="D163" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91194477775169547</v>
+        <v>0.74256292973356219</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="150" customHeight="1">
@@ -20347,7 +20455,7 @@
       </c>
       <c r="D164" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18988529305463464</v>
+        <v>0.57293467346859295</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="150" customHeight="1">
@@ -20360,7 +20468,7 @@
       </c>
       <c r="D165" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68298804139958913</v>
+        <v>0.28711047229806497</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="150" customHeight="1">
@@ -20375,7 +20483,7 @@
       </c>
       <c r="D166" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16402019512846966</v>
+        <v>3.3558305791173915E-2</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="150" customHeight="1">
@@ -20390,7 +20498,7 @@
       </c>
       <c r="D167" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50660824898418111</v>
+        <v>0.82372601943428425</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="150" customHeight="1">
@@ -20405,7 +20513,7 @@
       </c>
       <c r="D168" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16111440818286704</v>
+        <v>0.37005958223106306</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="150" customHeight="1">
@@ -20420,7 +20528,7 @@
       </c>
       <c r="D169" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92661418857670552</v>
+        <v>0.28563744428227367</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="150" customHeight="1">
@@ -20435,7 +20543,7 @@
       </c>
       <c r="D170" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60754020150954735</v>
+        <v>0.13544730974509833</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="150" customHeight="1">
@@ -20450,7 +20558,7 @@
       </c>
       <c r="D171" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88198838210164032</v>
+        <v>0.4502312570008099</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="150" customHeight="1">
@@ -20465,7 +20573,7 @@
       </c>
       <c r="D172" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78755326860660113</v>
+        <v>0.97944903768052682</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="150" customHeight="1">
@@ -20480,7 +20588,7 @@
       </c>
       <c r="D173" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5065059149702752</v>
+        <v>0.85035925099641763</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="150" customHeight="1">
@@ -20493,7 +20601,7 @@
       </c>
       <c r="D174" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77338936776887546</v>
+        <v>0.4305903783059537</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="150" customHeight="1">
@@ -20508,7 +20616,7 @@
       </c>
       <c r="D175" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17308492816011511</v>
+        <v>0.54524342586736085</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="150" customHeight="1">
@@ -20523,7 +20631,7 @@
       </c>
       <c r="D176" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47793840718971348</v>
+        <v>0.46802698287566802</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="150" customHeight="1">
@@ -20538,7 +20646,7 @@
       </c>
       <c r="D177" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3483775633359163</v>
+        <v>0.15718323464785755</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="150" customHeight="1">
@@ -20551,7 +20659,7 @@
       </c>
       <c r="D178" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6277473804516509</v>
+        <v>0.34942496620407559</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="150" customHeight="1">
@@ -20564,7 +20672,7 @@
       </c>
       <c r="D179" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12357179048527434</v>
+        <v>0.58213792836391243</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="150" customHeight="1">
@@ -20579,7 +20687,7 @@
       </c>
       <c r="D180" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17090557354835056</v>
+        <v>0.95651055671077378</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="150" customHeight="1">
@@ -20592,7 +20700,7 @@
       </c>
       <c r="D181" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6597829166875417E-2</v>
+        <v>0.9806171295420022</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="150" customHeight="1">
@@ -20605,7 +20713,7 @@
       </c>
       <c r="D182" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1962243550754722</v>
+        <v>0.79701274826352264</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="150" customHeight="1">
@@ -20620,7 +20728,7 @@
       </c>
       <c r="D183" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75618519421935015</v>
+        <v>0.59276920497148622</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="150" customHeight="1">
@@ -20635,7 +20743,7 @@
       </c>
       <c r="D184" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18796268582411935</v>
+        <v>7.026438818126135E-2</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="150" customHeight="1">
@@ -20650,7 +20758,7 @@
       </c>
       <c r="D185" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57229195176245018</v>
+        <v>0.48737000309590717</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="150" customHeight="1">
@@ -20665,7 +20773,7 @@
       </c>
       <c r="D186" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88812281998164877</v>
+        <v>0.64301115781385132</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="150" customHeight="1">
@@ -20680,7 +20788,7 @@
       </c>
       <c r="D187" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36948033299302863</v>
+        <v>0.33917221317744362</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="150" customHeight="1">
@@ -20693,7 +20801,7 @@
       </c>
       <c r="D188" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84439220540378301</v>
+        <v>0.24862372614586559</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="150" customHeight="1">
@@ -20708,7 +20816,7 @@
       </c>
       <c r="D189" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49728615618180694</v>
+        <v>0.67816712817311398</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="150" customHeight="1">
@@ -20723,7 +20831,7 @@
       </c>
       <c r="D190" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6179643268479684E-2</v>
+        <v>0.98858144970801898</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="150" customHeight="1">
@@ -20738,7 +20846,7 @@
       </c>
       <c r="D191" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53617949914848639</v>
+        <v>0.64897272768339664</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="150" customHeight="1">
@@ -20753,11 +20861,13 @@
       </c>
       <c r="D192" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36542435089845415</v>
+        <v>0.27501648732477912</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="150" customHeight="1">
-      <c r="A193" s="5"/>
+      <c r="A193" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B193" s="6" t="s">
         <v>384</v>
       </c>
@@ -20766,11 +20876,13 @@
       </c>
       <c r="D193" s="8">
         <f t="shared" ref="D193:D256" ca="1" si="3">RAND()*1</f>
-        <v>0.50387882131202899</v>
+        <v>0.31025456827321751</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="150" customHeight="1">
-      <c r="A194" s="5"/>
+      <c r="A194" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B194" s="6" t="s">
         <v>386</v>
       </c>
@@ -20779,11 +20891,13 @@
       </c>
       <c r="D194" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3506572399664748</v>
+        <v>0.53216283913411577</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="150" customHeight="1">
-      <c r="A195" s="5"/>
+      <c r="A195" s="11" t="s">
+        <v>1021</v>
+      </c>
       <c r="B195" s="6" t="s">
         <v>388</v>
       </c>
@@ -20792,7 +20906,7 @@
       </c>
       <c r="D195" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36497707484531972</v>
+        <v>0.88289032781987498</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="150" customHeight="1">
@@ -20805,11 +20919,13 @@
       </c>
       <c r="D196" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56433588211329844</v>
+        <v>0.72551481372054116</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="150" customHeight="1">
-      <c r="A197" s="5"/>
+      <c r="A197" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B197" s="6" t="s">
         <v>392</v>
       </c>
@@ -20818,11 +20934,13 @@
       </c>
       <c r="D197" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50099202999271564</v>
+        <v>0.11543234772975597</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="150" customHeight="1">
-      <c r="A198" s="5"/>
+      <c r="A198" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B198" s="6" t="s">
         <v>394</v>
       </c>
@@ -20831,11 +20949,13 @@
       </c>
       <c r="D198" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77740246495502985</v>
+        <v>0.78064589387552763</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="150" customHeight="1">
-      <c r="A199" s="5"/>
+      <c r="A199" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B199" s="6" t="s">
         <v>396</v>
       </c>
@@ -20844,11 +20964,13 @@
       </c>
       <c r="D199" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15426349935155015</v>
+        <v>0.96738227996865567</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="150" customHeight="1">
-      <c r="A200" s="5"/>
+      <c r="A200" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B200" s="6" t="s">
         <v>398</v>
       </c>
@@ -20857,11 +20979,13 @@
       </c>
       <c r="D200" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75682468934728564</v>
+        <v>0.57479000388315549</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="150" customHeight="1">
-      <c r="A201" s="5"/>
+      <c r="A201" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B201" s="6" t="s">
         <v>400</v>
       </c>
@@ -20870,11 +20994,13 @@
       </c>
       <c r="D201" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80495540380300945</v>
+        <v>0.14033636014297057</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="150" customHeight="1">
-      <c r="A202" s="5"/>
+      <c r="A202" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B202" s="6" t="s">
         <v>402</v>
       </c>
@@ -20883,11 +21009,13 @@
       </c>
       <c r="D202" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25809941781650025</v>
+        <v>0.27120141064125236</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="150" customHeight="1">
-      <c r="A203" s="5"/>
+      <c r="A203" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B203" s="6" t="s">
         <v>404</v>
       </c>
@@ -20896,11 +21024,13 @@
       </c>
       <c r="D203" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16606383702646133</v>
+        <v>0.41258750748437578</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="150" customHeight="1">
-      <c r="A204" s="5"/>
+      <c r="A204" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B204" s="6" t="s">
         <v>406</v>
       </c>
@@ -20909,7 +21039,7 @@
       </c>
       <c r="D204" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59078042661587848</v>
+        <v>0.79421381784080691</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="150" customHeight="1">
@@ -20922,11 +21052,13 @@
       </c>
       <c r="D205" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93556836330408522</v>
+        <v>0.73929483763126536</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="150" customHeight="1">
-      <c r="A206" s="5"/>
+      <c r="A206" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B206" s="6" t="s">
         <v>410</v>
       </c>
@@ -20935,11 +21067,13 @@
       </c>
       <c r="D206" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54208891638083201</v>
+        <v>0.38266746121749473</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="150" customHeight="1">
-      <c r="A207" s="5"/>
+      <c r="A207" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B207" s="6" t="s">
         <v>412</v>
       </c>
@@ -20948,11 +21082,13 @@
       </c>
       <c r="D207" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91831138847563942</v>
+        <v>0.48251543824602483</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="150" customHeight="1">
-      <c r="A208" s="5"/>
+      <c r="A208" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B208" s="6" t="s">
         <v>414</v>
       </c>
@@ -20961,11 +21097,13 @@
       </c>
       <c r="D208" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80845593774989066</v>
+        <v>0.59148937774496879</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="150" customHeight="1">
-      <c r="A209" s="5"/>
+      <c r="A209" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B209" s="6" t="s">
         <v>416</v>
       </c>
@@ -20974,11 +21112,13 @@
       </c>
       <c r="D209" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49164416450709747</v>
+        <v>0.53707204223469762</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="150" customHeight="1">
-      <c r="A210" s="5"/>
+      <c r="A210" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B210" s="6" t="s">
         <v>418</v>
       </c>
@@ -20987,11 +21127,13 @@
       </c>
       <c r="D210" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3359247812369679E-2</v>
+        <v>0.92810738737897014</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="150" customHeight="1">
-      <c r="A211" s="5"/>
+      <c r="A211" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B211" s="6" t="s">
         <v>420</v>
       </c>
@@ -21000,11 +21142,13 @@
       </c>
       <c r="D211" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56441170694248533</v>
+        <v>3.4945429947823903E-2</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="150" customHeight="1">
-      <c r="A212" s="5"/>
+      <c r="A212" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B212" s="6" t="s">
         <v>422</v>
       </c>
@@ -21013,7 +21157,7 @@
       </c>
       <c r="D212" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1291381294101549</v>
+        <v>0.24394945661152612</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="150" customHeight="1">
@@ -21026,11 +21170,13 @@
       </c>
       <c r="D213" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98490748147800322</v>
+        <v>0.28181472457644863</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="150" customHeight="1">
-      <c r="A214" s="5"/>
+      <c r="A214" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B214" s="6" t="s">
         <v>426</v>
       </c>
@@ -21039,11 +21185,13 @@
       </c>
       <c r="D214" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21774450925621447</v>
+        <v>0.79614050577823547</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="150" customHeight="1">
-      <c r="A215" s="5"/>
+      <c r="A215" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B215" s="6" t="s">
         <v>428</v>
       </c>
@@ -21052,7 +21200,7 @@
       </c>
       <c r="D215" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22171410705223227</v>
+        <v>0.88869362929293272</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="150" customHeight="1">
@@ -21065,7 +21213,7 @@
       </c>
       <c r="D216" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7410986720434507E-2</v>
+        <v>0.84153073734303185</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="150" customHeight="1">
@@ -21078,11 +21226,13 @@
       </c>
       <c r="D217" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36493718437127409</v>
+        <v>0.7394486620032561</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="150" customHeight="1">
-      <c r="A218" s="5"/>
+      <c r="A218" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B218" s="6" t="s">
         <v>434</v>
       </c>
@@ -21091,11 +21241,13 @@
       </c>
       <c r="D218" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95622488184640431</v>
+        <v>0.78988010677465847</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="150" customHeight="1">
-      <c r="A219" s="5"/>
+      <c r="A219" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B219" s="6" t="s">
         <v>436</v>
       </c>
@@ -21104,7 +21256,7 @@
       </c>
       <c r="D219" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53192433881184531</v>
+        <v>0.68575978940255755</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="150" customHeight="1">
@@ -21117,7 +21269,7 @@
       </c>
       <c r="D220" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53964080994015851</v>
+        <v>0.15486517680515077</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="150" customHeight="1">
@@ -21130,7 +21282,7 @@
       </c>
       <c r="D221" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90216591650042122</v>
+        <v>4.1801753124896313E-2</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="150" customHeight="1">
@@ -21143,11 +21295,13 @@
       </c>
       <c r="D222" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55358102961517952</v>
+        <v>0.33313311752372088</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="150" customHeight="1">
-      <c r="A223" s="5"/>
+      <c r="A223" s="11" t="s">
+        <v>1025</v>
+      </c>
       <c r="B223" s="6" t="s">
         <v>444</v>
       </c>
@@ -21156,11 +21310,13 @@
       </c>
       <c r="D223" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58948034598698018</v>
+        <v>0.84343903647353757</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="150" customHeight="1">
-      <c r="A224" s="5"/>
+      <c r="A224" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B224" s="6" t="s">
         <v>446</v>
       </c>
@@ -21169,7 +21325,7 @@
       </c>
       <c r="D224" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75177913550666364</v>
+        <v>0.72231298101355812</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="150" customHeight="1">
@@ -21182,7 +21338,7 @@
       </c>
       <c r="D225" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.374749552687211</v>
+        <v>0.82323717375059136</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="150" customHeight="1">
@@ -21195,11 +21351,13 @@
       </c>
       <c r="D226" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64033052780709143</v>
+        <v>0.14137107817215311</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="150" customHeight="1">
-      <c r="A227" s="5"/>
+      <c r="A227" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B227" s="6" t="s">
         <v>452</v>
       </c>
@@ -21208,7 +21366,7 @@
       </c>
       <c r="D227" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5117535890860464</v>
+        <v>0.68009418443056768</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="150" customHeight="1">
@@ -21221,11 +21379,13 @@
       </c>
       <c r="D228" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19515030314829906</v>
+        <v>0.94697852798792159</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="150" customHeight="1">
-      <c r="A229" s="5"/>
+      <c r="A229" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B229" s="6" t="s">
         <v>456</v>
       </c>
@@ -21234,7 +21394,7 @@
       </c>
       <c r="D229" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18674460841967</v>
+        <v>0.92745892997172474</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="150" customHeight="1">
@@ -21247,11 +21407,13 @@
       </c>
       <c r="D230" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25827222549295747</v>
+        <v>0.50702176749215222</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="150" customHeight="1">
-      <c r="A231" s="5"/>
+      <c r="A231" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B231" s="6" t="s">
         <v>460</v>
       </c>
@@ -21260,11 +21422,13 @@
       </c>
       <c r="D231" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52096530504883787</v>
+        <v>0.58065164816686388</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="150" customHeight="1">
-      <c r="A232" s="5"/>
+      <c r="A232" s="11" t="s">
+        <v>1026</v>
+      </c>
       <c r="B232" s="6" t="s">
         <v>462</v>
       </c>
@@ -21273,11 +21437,13 @@
       </c>
       <c r="D232" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62503113252140685</v>
+        <v>0.92625268003810246</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="150" customHeight="1">
-      <c r="A233" s="5"/>
+      <c r="A233" s="11" t="s">
+        <v>1027</v>
+      </c>
       <c r="B233" s="6" t="s">
         <v>464</v>
       </c>
@@ -21286,11 +21452,13 @@
       </c>
       <c r="D233" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55202508442291687</v>
+        <v>0.58595752176282545</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="150" customHeight="1">
-      <c r="A234" s="5"/>
+      <c r="A234" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B234" s="6" t="s">
         <v>466</v>
       </c>
@@ -21299,7 +21467,7 @@
       </c>
       <c r="D234" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75390016628715084</v>
+        <v>5.7108084794233682E-2</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="150" customHeight="1">
@@ -21312,11 +21480,13 @@
       </c>
       <c r="D235" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43564814729087631</v>
+        <v>0.48604892680346012</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="150" customHeight="1">
-      <c r="A236" s="5"/>
+      <c r="A236" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B236" s="6" t="s">
         <v>470</v>
       </c>
@@ -21325,7 +21495,7 @@
       </c>
       <c r="D236" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31344127867047145</v>
+        <v>0.363125537277735</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="150" customHeight="1">
@@ -21338,11 +21508,13 @@
       </c>
       <c r="D237" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23554408447243524</v>
+        <v>0.3113307054727894</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="150" customHeight="1">
-      <c r="A238" s="5"/>
+      <c r="A238" s="11" t="s">
+        <v>1028</v>
+      </c>
       <c r="B238" s="6" t="s">
         <v>474</v>
       </c>
@@ -21351,7 +21523,7 @@
       </c>
       <c r="D238" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30130642231651916</v>
+        <v>0.86936866957974557</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="150" customHeight="1">
@@ -21364,11 +21536,13 @@
       </c>
       <c r="D239" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9184895057064798</v>
+        <v>0.2084684983675974</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="150" customHeight="1">
-      <c r="A240" s="5"/>
+      <c r="A240" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B240" s="6" t="s">
         <v>478</v>
       </c>
@@ -21377,11 +21551,13 @@
       </c>
       <c r="D240" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55278077221519462</v>
+        <v>0.52395508787206979</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="150" customHeight="1">
-      <c r="A241" s="5"/>
+      <c r="A241" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B241" s="6" t="s">
         <v>480</v>
       </c>
@@ -21390,11 +21566,13 @@
       </c>
       <c r="D241" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8256380538931896E-2</v>
+        <v>0.99809124758836154</v>
       </c>
     </row>
     <row r="242" spans="1:4" s="2" customFormat="1" ht="150" customHeight="1">
-      <c r="A242" s="5"/>
+      <c r="A242" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B242" s="6" t="s">
         <v>482</v>
       </c>
@@ -21403,7 +21581,7 @@
       </c>
       <c r="D242" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62911201243952486</v>
+        <v>0.58153179970363755</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="150" customHeight="1">
@@ -21416,11 +21594,13 @@
       </c>
       <c r="D243" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9616344678371449</v>
+        <v>0.36863794118572724</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="150" customHeight="1">
-      <c r="A244" s="5"/>
+      <c r="A244" s="11" t="s">
+        <v>1029</v>
+      </c>
       <c r="B244" s="6" t="s">
         <v>486</v>
       </c>
@@ -21429,11 +21609,13 @@
       </c>
       <c r="D244" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85209160193928801</v>
+        <v>0.41266071459012621</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="150" customHeight="1">
-      <c r="A245" s="5"/>
+      <c r="A245" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B245" s="6" t="s">
         <v>488</v>
       </c>
@@ -21442,11 +21624,13 @@
       </c>
       <c r="D245" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63872968259013596</v>
+        <v>0.51388471920274081</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="150" customHeight="1">
-      <c r="A246" s="5"/>
+      <c r="A246" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B246" s="6" t="s">
         <v>490</v>
       </c>
@@ -21455,11 +21639,13 @@
       </c>
       <c r="D246" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21627316293701204</v>
+        <v>0.87134603287574719</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="150" customHeight="1">
-      <c r="A247" s="5"/>
+      <c r="A247" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B247" s="6" t="s">
         <v>492</v>
       </c>
@@ -21468,7 +21654,7 @@
       </c>
       <c r="D247" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25997538453960567</v>
+        <v>0.69943304748939772</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="150" customHeight="1">
@@ -21481,11 +21667,13 @@
       </c>
       <c r="D248" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7.4398527158358707E-2</v>
+        <v>0.29729199951664076</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="150" customHeight="1">
-      <c r="A249" s="5"/>
+      <c r="A249" s="11" t="s">
+        <v>1030</v>
+      </c>
       <c r="B249" s="6" t="s">
         <v>496</v>
       </c>
@@ -21494,11 +21682,13 @@
       </c>
       <c r="D249" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31912940995659622</v>
+        <v>0.89002125359217776</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="150" customHeight="1">
-      <c r="A250" s="5"/>
+      <c r="A250" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B250" s="6" t="s">
         <v>498</v>
       </c>
@@ -21507,11 +21697,13 @@
       </c>
       <c r="D250" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75202970714617645</v>
+        <v>0.83769526134621597</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="150" customHeight="1">
-      <c r="A251" s="5"/>
+      <c r="A251" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B251" s="6" t="s">
         <v>500</v>
       </c>
@@ -21520,7 +21712,7 @@
       </c>
       <c r="D251" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82827791062642442</v>
+        <v>0.67418585567650846</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="150" customHeight="1">
@@ -21533,7 +21725,7 @@
       </c>
       <c r="D252" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96966009900968686</v>
+        <v>0.20696618072564721</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="150" customHeight="1">
@@ -21546,11 +21738,13 @@
       </c>
       <c r="D253" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75044160375026858</v>
+        <v>0.7180307965764573</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="150" customHeight="1">
-      <c r="A254" s="5"/>
+      <c r="A254" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B254" s="6" t="s">
         <v>506</v>
       </c>
@@ -21559,11 +21753,13 @@
       </c>
       <c r="D254" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21910066968325703</v>
+        <v>0.86507208916184342</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="150" customHeight="1">
-      <c r="A255" s="5"/>
+      <c r="A255" s="11" t="s">
+        <v>1031</v>
+      </c>
       <c r="B255" s="6" t="s">
         <v>508</v>
       </c>
@@ -21572,11 +21768,13 @@
       </c>
       <c r="D255" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37847520549209923</v>
+        <v>8.9601024843610766E-2</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="150" customHeight="1">
-      <c r="A256" s="5"/>
+      <c r="A256" s="11" t="s">
+        <v>1032</v>
+      </c>
       <c r="B256" s="6" t="s">
         <v>510</v>
       </c>
@@ -21585,11 +21783,13 @@
       </c>
       <c r="D256" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85271521729615163</v>
+        <v>0.94010180098460827</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="150" customHeight="1">
-      <c r="A257" s="5"/>
+      <c r="A257" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B257" s="6" t="s">
         <v>512</v>
       </c>
@@ -21598,11 +21798,13 @@
       </c>
       <c r="D257" s="8">
         <f t="shared" ref="D257:D320" ca="1" si="4">RAND()*1</f>
-        <v>0.90124460294014086</v>
+        <v>0.54484466656020558</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="150" customHeight="1">
-      <c r="A258" s="5"/>
+      <c r="A258" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B258" s="6" t="s">
         <v>514</v>
       </c>
@@ -21611,11 +21813,13 @@
       </c>
       <c r="D258" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.95433476431263109</v>
+        <v>8.4434637054491835E-2</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="150" customHeight="1">
-      <c r="A259" s="5"/>
+      <c r="A259" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B259" s="6" t="s">
         <v>516</v>
       </c>
@@ -21624,11 +21828,13 @@
       </c>
       <c r="D259" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>9.766198863183595E-2</v>
+        <v>0.96760519578173565</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="150" customHeight="1">
-      <c r="A260" s="5"/>
+      <c r="A260" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B260" s="6" t="s">
         <v>518</v>
       </c>
@@ -21637,11 +21843,13 @@
       </c>
       <c r="D260" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5762208651178945</v>
+        <v>0.97394717172776568</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="150" customHeight="1">
-      <c r="A261" s="5"/>
+      <c r="A261" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B261" s="6" t="s">
         <v>520</v>
       </c>
@@ -21650,11 +21858,11 @@
       </c>
       <c r="D261" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17309252459151858</v>
+        <v>0.9886148034390545</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="150" customHeight="1">
-      <c r="A262" s="5"/>
+      <c r="A262" s="11"/>
       <c r="B262" s="6" t="s">
         <v>522</v>
       </c>
@@ -21663,7 +21871,7 @@
       </c>
       <c r="D262" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.80656685918016424</v>
+        <v>0.44919214053955725</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="150" customHeight="1">
@@ -21676,7 +21884,7 @@
       </c>
       <c r="D263" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19851793781944538</v>
+        <v>0.1167265189169886</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="150" customHeight="1">
@@ -21689,11 +21897,13 @@
       </c>
       <c r="D264" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50913579953127031</v>
+        <v>2.7902185126489232E-2</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="150" customHeight="1">
-      <c r="A265" s="5"/>
+      <c r="A265" s="11" t="s">
+        <v>1026</v>
+      </c>
       <c r="B265" s="6" t="s">
         <v>528</v>
       </c>
@@ -21702,11 +21912,13 @@
       </c>
       <c r="D265" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33676858921791775</v>
+        <v>0.11660429657391447</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="150" customHeight="1">
-      <c r="A266" s="5"/>
+      <c r="A266" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B266" s="6" t="s">
         <v>530</v>
       </c>
@@ -21715,7 +21927,7 @@
       </c>
       <c r="D266" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54389395350421799</v>
+        <v>0.8720134744571445</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="150" customHeight="1">
@@ -21728,11 +21940,13 @@
       </c>
       <c r="D267" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37665892317819194</v>
+        <v>0.40923509229160315</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="150" customHeight="1">
-      <c r="A268" s="5"/>
+      <c r="A268" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B268" s="6" t="s">
         <v>534</v>
       </c>
@@ -21741,11 +21955,13 @@
       </c>
       <c r="D268" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19413182329056133</v>
+        <v>0.32489580300823373</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="150" customHeight="1">
-      <c r="A269" s="5"/>
+      <c r="A269" s="11" t="s">
+        <v>1032</v>
+      </c>
       <c r="B269" s="6" t="s">
         <v>536</v>
       </c>
@@ -21754,11 +21970,13 @@
       </c>
       <c r="D269" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>4.4344154511308465E-2</v>
+        <v>0.86699741626630644</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="150" customHeight="1">
-      <c r="A270" s="5"/>
+      <c r="A270" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B270" s="6" t="s">
         <v>538</v>
       </c>
@@ -21767,11 +21985,13 @@
       </c>
       <c r="D270" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18778741912193031</v>
+        <v>7.8106927617726085E-2</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="150" customHeight="1">
-      <c r="A271" s="5"/>
+      <c r="A271" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B271" s="6" t="s">
         <v>540</v>
       </c>
@@ -21780,11 +22000,13 @@
       </c>
       <c r="D271" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4852485149971647</v>
+        <v>4.5763071535170896E-3</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="150" customHeight="1">
-      <c r="A272" s="5"/>
+      <c r="A272" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B272" s="6" t="s">
         <v>542</v>
       </c>
@@ -21793,11 +22015,13 @@
       </c>
       <c r="D272" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89510241365591481</v>
+        <v>0.7849893621493973</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="150" customHeight="1">
-      <c r="A273" s="5"/>
+      <c r="A273" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B273" s="6" t="s">
         <v>544</v>
       </c>
@@ -21806,7 +22030,7 @@
       </c>
       <c r="D273" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4919065578463635</v>
+        <v>0.43705488811348814</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="150" customHeight="1">
@@ -21819,11 +22043,11 @@
       </c>
       <c r="D274" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47641685745179674</v>
+        <v>0.62671200737392807</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="150" customHeight="1">
-      <c r="A275" s="5"/>
+      <c r="A275" s="11"/>
       <c r="B275" s="6" t="s">
         <v>548</v>
       </c>
@@ -21832,11 +22056,13 @@
       </c>
       <c r="D275" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82357664982888035</v>
+        <v>0.26917503026967116</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="150" customHeight="1">
-      <c r="A276" s="5"/>
+      <c r="A276" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B276" s="6" t="s">
         <v>550</v>
       </c>
@@ -21845,11 +22071,13 @@
       </c>
       <c r="D276" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10256443120269987</v>
+        <v>0.9421742407809881</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="150" customHeight="1">
-      <c r="A277" s="5"/>
+      <c r="A277" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B277" s="6" t="s">
         <v>552</v>
       </c>
@@ -21858,11 +22086,13 @@
       </c>
       <c r="D277" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14077349792349203</v>
+        <v>0.63891557938230359</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="150" customHeight="1">
-      <c r="A278" s="5"/>
+      <c r="A278" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B278" s="6" t="s">
         <v>554</v>
       </c>
@@ -21871,11 +22101,13 @@
       </c>
       <c r="D278" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96588227867495735</v>
+        <v>0.58583854004905556</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="150" customHeight="1">
-      <c r="A279" s="5"/>
+      <c r="A279" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B279" s="6" t="s">
         <v>556</v>
       </c>
@@ -21884,11 +22116,13 @@
       </c>
       <c r="D279" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34256249334197286</v>
+        <v>0.52419987905099941</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="150" customHeight="1">
-      <c r="A280" s="5"/>
+      <c r="A280" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B280" s="6" t="s">
         <v>558</v>
       </c>
@@ -21897,7 +22131,7 @@
       </c>
       <c r="D280" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4625803230716875</v>
+        <v>0.69561369340711421</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="150" customHeight="1">
@@ -21910,11 +22144,13 @@
       </c>
       <c r="D281" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15843206507367558</v>
+        <v>0.55724036892869555</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="150" customHeight="1">
-      <c r="A282" s="5"/>
+      <c r="A282" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B282" s="6" t="s">
         <v>562</v>
       </c>
@@ -21923,11 +22159,13 @@
       </c>
       <c r="D282" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.535601951277629</v>
+        <v>1.2861489466288178E-3</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="150" customHeight="1">
-      <c r="A283" s="5"/>
+      <c r="A283" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B283" s="6" t="s">
         <v>564</v>
       </c>
@@ -21936,7 +22174,7 @@
       </c>
       <c r="D283" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25668613299722354</v>
+        <v>0.31592474082167243</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="150" customHeight="1">
@@ -21949,11 +22187,13 @@
       </c>
       <c r="D284" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>2.936021948610068E-2</v>
+        <v>1.7187653243155854E-2</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="150" customHeight="1">
-      <c r="A285" s="5"/>
+      <c r="A285" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B285" s="6" t="s">
         <v>568</v>
       </c>
@@ -21962,11 +22202,13 @@
       </c>
       <c r="D285" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9976712095473941E-2</v>
+        <v>0.67556128894677703</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="150" customHeight="1">
-      <c r="A286" s="5"/>
+      <c r="A286" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B286" s="6" t="s">
         <v>570</v>
       </c>
@@ -21975,7 +22217,7 @@
       </c>
       <c r="D286" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29141759253998056</v>
+        <v>6.5635717811552197E-2</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="150" customHeight="1">
@@ -21988,11 +22230,13 @@
       </c>
       <c r="D287" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56954150650346502</v>
+        <v>5.6043155923517829E-2</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="150" customHeight="1">
-      <c r="A288" s="5"/>
+      <c r="A288" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="B288" s="6" t="s">
         <v>574</v>
       </c>
@@ -22001,7 +22245,7 @@
       </c>
       <c r="D288" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.8766800557556198</v>
+        <v>7.5698139859236013E-3</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="150" customHeight="1">
@@ -22014,7 +22258,7 @@
       </c>
       <c r="D289" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27414616041442796</v>
+        <v>0.58207133063393934</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="150" customHeight="1">
@@ -22027,11 +22271,13 @@
       </c>
       <c r="D290" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.72107064938867005</v>
+        <v>9.1877814837480587E-2</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="150" customHeight="1">
-      <c r="A291" s="5"/>
+      <c r="A291" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B291" s="6" t="s">
         <v>580</v>
       </c>
@@ -22040,11 +22286,13 @@
       </c>
       <c r="D291" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14794450247445234</v>
+        <v>0.40663018920932803</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="150" customHeight="1">
-      <c r="A292" s="5"/>
+      <c r="A292" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="B292" s="6" t="s">
         <v>582</v>
       </c>
@@ -22053,11 +22301,13 @@
       </c>
       <c r="D292" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54881294707606809</v>
+        <v>0.56506516680007601</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="150" customHeight="1">
-      <c r="A293" s="5"/>
+      <c r="A293" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B293" s="6" t="s">
         <v>584</v>
       </c>
@@ -22066,11 +22316,13 @@
       </c>
       <c r="D293" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37768948648109701</v>
+        <v>0.50758104769121437</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="150" customHeight="1">
-      <c r="A294" s="5"/>
+      <c r="A294" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="B294" s="6" t="s">
         <v>586</v>
       </c>
@@ -22079,7 +22331,7 @@
       </c>
       <c r="D294" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64986195606309849</v>
+        <v>0.79728008009634843</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="150" customHeight="1">
@@ -22092,7 +22344,7 @@
       </c>
       <c r="D295" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47277893432780604</v>
+        <v>1.308341497928045E-2</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="150" customHeight="1">
@@ -22105,11 +22357,11 @@
       </c>
       <c r="D296" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.85845926532813566</v>
+        <v>0.28100447197212242</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="150" customHeight="1">
-      <c r="A297" s="5"/>
+      <c r="A297" s="11"/>
       <c r="B297" s="6" t="s">
         <v>592</v>
       </c>
@@ -22118,11 +22370,13 @@
       </c>
       <c r="D297" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3510873814458696</v>
+        <v>0.28292784549578065</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="150" customHeight="1">
-      <c r="A298" s="5"/>
+      <c r="A298" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B298" s="6" t="s">
         <v>594</v>
       </c>
@@ -22131,11 +22385,13 @@
       </c>
       <c r="D298" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34529212979092994</v>
+        <v>0.50054127154687811</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="150" customHeight="1">
-      <c r="A299" s="5"/>
+      <c r="A299" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B299" s="6" t="s">
         <v>596</v>
       </c>
@@ -22144,11 +22400,13 @@
       </c>
       <c r="D299" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34656202952587456</v>
+        <v>5.5227739505796403E-2</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="150" customHeight="1">
-      <c r="A300" s="5"/>
+      <c r="A300" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B300" s="6" t="s">
         <v>598</v>
       </c>
@@ -22157,11 +22415,13 @@
       </c>
       <c r="D300" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76063996701290415</v>
+        <v>0.30741415686783824</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="150" customHeight="1">
-      <c r="A301" s="5"/>
+      <c r="A301" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B301" s="6" t="s">
         <v>600</v>
       </c>
@@ -22170,11 +22430,13 @@
       </c>
       <c r="D301" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1633115164729766E-2</v>
+        <v>0.73772973463578717</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="150" customHeight="1">
-      <c r="A302" s="5"/>
+      <c r="A302" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B302" s="6" t="s">
         <v>602</v>
       </c>
@@ -22183,11 +22445,13 @@
       </c>
       <c r="D302" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94306696905413701</v>
+        <v>9.7430941509382474E-2</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="150" customHeight="1">
-      <c r="A303" s="5"/>
+      <c r="A303" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B303" s="6" t="s">
         <v>604</v>
       </c>
@@ -22196,7 +22460,7 @@
       </c>
       <c r="D303" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29431848436410268</v>
+        <v>0.71432836345188666</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="150" customHeight="1">
@@ -22209,11 +22473,13 @@
       </c>
       <c r="D304" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65545265281162346</v>
+        <v>0.58913190161473927</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="150" customHeight="1">
-      <c r="A305" s="5"/>
+      <c r="A305" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B305" s="6" t="s">
         <v>608</v>
       </c>
@@ -22222,11 +22488,13 @@
       </c>
       <c r="D305" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17661804505634382</v>
+        <v>0.47338924418762984</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="150" customHeight="1">
-      <c r="A306" s="5"/>
+      <c r="A306" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B306" s="6" t="s">
         <v>610</v>
       </c>
@@ -22235,11 +22503,13 @@
       </c>
       <c r="D306" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45100835585928656</v>
+        <v>0.45777789876938657</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="150" customHeight="1">
-      <c r="A307" s="5"/>
+      <c r="A307" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B307" s="6" t="s">
         <v>612</v>
       </c>
@@ -22248,11 +22518,13 @@
       </c>
       <c r="D307" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84685723086305209</v>
+        <v>0.71048411018988689</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="150" customHeight="1">
-      <c r="A308" s="5"/>
+      <c r="A308" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B308" s="6" t="s">
         <v>614</v>
       </c>
@@ -22261,11 +22533,13 @@
       </c>
       <c r="D308" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74567919961345985</v>
+        <v>0.41516263886580895</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="150" customHeight="1">
-      <c r="A309" s="5"/>
+      <c r="A309" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B309" s="6" t="s">
         <v>616</v>
       </c>
@@ -22274,11 +22548,13 @@
       </c>
       <c r="D309" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62971805971285777</v>
+        <v>0.68792017464063082</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="150" customHeight="1">
-      <c r="A310" s="5"/>
+      <c r="A310" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B310" s="6" t="s">
         <v>618</v>
       </c>
@@ -22287,11 +22563,13 @@
       </c>
       <c r="D310" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21007422974196532</v>
+        <v>0.22226828801292609</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="150" customHeight="1">
-      <c r="A311" s="5"/>
+      <c r="A311" s="11" t="s">
+        <v>1035</v>
+      </c>
       <c r="B311" s="6" t="s">
         <v>620</v>
       </c>
@@ -22300,11 +22578,13 @@
       </c>
       <c r="D311" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13799532747594234</v>
+        <v>0.84072237398275573</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="150" customHeight="1">
-      <c r="A312" s="5"/>
+      <c r="A312" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B312" s="6" t="s">
         <v>622</v>
       </c>
@@ -22313,11 +22593,13 @@
       </c>
       <c r="D312" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71651912214023539</v>
+        <v>0.46585859589815803</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="150" customHeight="1">
-      <c r="A313" s="5"/>
+      <c r="A313" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B313" s="6" t="s">
         <v>624</v>
       </c>
@@ -22326,11 +22608,13 @@
       </c>
       <c r="D313" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18194485646428649</v>
+        <v>0.93994097379106301</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="150" customHeight="1">
-      <c r="A314" s="5"/>
+      <c r="A314" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B314" s="6" t="s">
         <v>626</v>
       </c>
@@ -22339,11 +22623,13 @@
       </c>
       <c r="D314" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59005783146417179</v>
+        <v>0.80231274758620941</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="150" customHeight="1">
-      <c r="A315" s="5"/>
+      <c r="A315" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B315" s="6" t="s">
         <v>628</v>
       </c>
@@ -22352,11 +22638,13 @@
       </c>
       <c r="D315" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>6.462218478942594E-2</v>
+        <v>0.73752954194655218</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="150" customHeight="1">
-      <c r="A316" s="5"/>
+      <c r="A316" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B316" s="6" t="s">
         <v>630</v>
       </c>
@@ -22365,11 +22653,13 @@
       </c>
       <c r="D316" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>8.9030182391348411E-2</v>
+        <v>0.93502335099039868</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="150" customHeight="1">
-      <c r="A317" s="5"/>
+      <c r="A317" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B317" s="6" t="s">
         <v>632</v>
       </c>
@@ -22378,11 +22668,13 @@
       </c>
       <c r="D317" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20055995048775288</v>
+        <v>0.90413496323415177</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="150" customHeight="1">
-      <c r="A318" s="5"/>
+      <c r="A318" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B318" s="6" t="s">
         <v>634</v>
       </c>
@@ -22391,11 +22683,13 @@
       </c>
       <c r="D318" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43287205646979132</v>
+        <v>0.88822821167596977</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="150" customHeight="1">
-      <c r="A319" s="5"/>
+      <c r="A319" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B319" s="6" t="s">
         <v>636</v>
       </c>
@@ -22404,11 +22698,13 @@
       </c>
       <c r="D319" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92090269469716346</v>
+        <v>5.6031132608673317E-2</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="150" customHeight="1">
-      <c r="A320" s="5"/>
+      <c r="A320" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B320" s="6" t="s">
         <v>638</v>
       </c>
@@ -22417,11 +22713,13 @@
       </c>
       <c r="D320" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9279337204356517</v>
+        <v>0.75331170308628737</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="150" customHeight="1">
-      <c r="A321" s="5"/>
+      <c r="A321" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B321" s="6" t="s">
         <v>640</v>
       </c>
@@ -22430,11 +22728,13 @@
       </c>
       <c r="D321" s="8">
         <f t="shared" ref="D321:D384" ca="1" si="5">RAND()*1</f>
-        <v>0.76764446713430257</v>
+        <v>0.10834244965337925</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="150" customHeight="1">
-      <c r="A322" s="5"/>
+      <c r="A322" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B322" s="6" t="s">
         <v>642</v>
       </c>
@@ -22443,11 +22743,13 @@
       </c>
       <c r="D322" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>7.7781152324609026E-2</v>
+        <v>0.44151435017407581</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="150" customHeight="1">
-      <c r="A323" s="5"/>
+      <c r="A323" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B323" s="6" t="s">
         <v>644</v>
       </c>
@@ -22456,7 +22758,7 @@
       </c>
       <c r="D323" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.36418688937095012</v>
+        <v>0.60302171824367135</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="150" customHeight="1">
@@ -22469,11 +22771,13 @@
       </c>
       <c r="D324" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.11244927321944731</v>
+        <v>0.75546324451820446</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="150" customHeight="1">
-      <c r="A325" s="5"/>
+      <c r="A325" s="11" t="s">
+        <v>1036</v>
+      </c>
       <c r="B325" s="6" t="s">
         <v>648</v>
       </c>
@@ -22482,11 +22786,13 @@
       </c>
       <c r="D325" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67705448584492478</v>
+        <v>0.11768243680038726</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="150" customHeight="1">
-      <c r="A326" s="5"/>
+      <c r="A326" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B326" s="6" t="s">
         <v>650</v>
       </c>
@@ -22495,11 +22801,13 @@
       </c>
       <c r="D326" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74350536638301312</v>
+        <v>0.75441905809449983</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="150" customHeight="1">
-      <c r="A327" s="5"/>
+      <c r="A327" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B327" s="6" t="s">
         <v>652</v>
       </c>
@@ -22508,7 +22816,7 @@
       </c>
       <c r="D327" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15313576363349957</v>
+        <v>0.9071927350008312</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="150" customHeight="1">
@@ -22521,11 +22829,13 @@
       </c>
       <c r="D328" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.40247475509106001</v>
+        <v>0.37913739106588817</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="150" customHeight="1">
-      <c r="A329" s="5"/>
+      <c r="A329" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B329" s="6" t="s">
         <v>656</v>
       </c>
@@ -22534,11 +22844,13 @@
       </c>
       <c r="D329" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23372538799678266</v>
+        <v>0.21109880915425949</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="150" customHeight="1">
-      <c r="A330" s="5"/>
+      <c r="A330" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B330" s="6" t="s">
         <v>658</v>
       </c>
@@ -22547,11 +22859,13 @@
       </c>
       <c r="D330" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67294233204602605</v>
+        <v>8.3709243830447977E-2</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="150" customHeight="1">
-      <c r="A331" s="5"/>
+      <c r="A331" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B331" s="6" t="s">
         <v>660</v>
       </c>
@@ -22560,11 +22874,13 @@
       </c>
       <c r="D331" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99854574542097962</v>
+        <v>0.17076120395139494</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="150" customHeight="1">
-      <c r="A332" s="5"/>
+      <c r="A332" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B332" s="6" t="s">
         <v>662</v>
       </c>
@@ -22573,7 +22889,7 @@
       </c>
       <c r="D332" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18507436507303987</v>
+        <v>0.97953960990424904</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="150" customHeight="1">
@@ -22586,7 +22902,7 @@
       </c>
       <c r="D333" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83524708817700832</v>
+        <v>0.82054293166900194</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="150" customHeight="1">
@@ -22599,11 +22915,13 @@
       </c>
       <c r="D334" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49192636066766959</v>
+        <v>0.1164936207751387</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="150" customHeight="1">
-      <c r="A335" s="5"/>
+      <c r="A335" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B335" s="6" t="s">
         <v>668</v>
       </c>
@@ -22612,7 +22930,7 @@
       </c>
       <c r="D335" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61646017818563448</v>
+        <v>0.15628781128251723</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="150" customHeight="1">
@@ -22625,7 +22943,7 @@
       </c>
       <c r="D336" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66429485326704441</v>
+        <v>0.65901462569002656</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="150" customHeight="1">
@@ -22638,11 +22956,13 @@
       </c>
       <c r="D337" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66338934325629095</v>
+        <v>0.61218947454654049</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="150" customHeight="1">
-      <c r="A338" s="5"/>
+      <c r="A338" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B338" s="6" t="s">
         <v>674</v>
       </c>
@@ -22651,7 +22971,7 @@
       </c>
       <c r="D338" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65289224812760682</v>
+        <v>0.81818872613461491</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="150" customHeight="1">
@@ -22664,11 +22984,13 @@
       </c>
       <c r="D339" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.78269691641200945</v>
+        <v>0.39141880774143067</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="150" customHeight="1">
-      <c r="A340" s="5"/>
+      <c r="A340" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B340" s="6" t="s">
         <v>678</v>
       </c>
@@ -22677,11 +22999,13 @@
       </c>
       <c r="D340" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.7531696135001702</v>
+        <v>0.99573075111257159</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="150" customHeight="1">
-      <c r="A341" s="5"/>
+      <c r="A341" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B341" s="6" t="s">
         <v>680</v>
       </c>
@@ -22690,11 +23014,13 @@
       </c>
       <c r="D341" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6882724203635977</v>
+        <v>0.43396167297801636</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="150" customHeight="1">
-      <c r="A342" s="5"/>
+      <c r="A342" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B342" s="6" t="s">
         <v>682</v>
       </c>
@@ -22703,11 +23029,13 @@
       </c>
       <c r="D342" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.94526706853606957</v>
+        <v>0.53158911809030385</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="150" customHeight="1">
-      <c r="A343" s="5"/>
+      <c r="A343" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B343" s="6" t="s">
         <v>684</v>
       </c>
@@ -22716,11 +23044,13 @@
       </c>
       <c r="D343" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49216167533480459</v>
+        <v>0.24957730902846376</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="150" customHeight="1">
-      <c r="A344" s="5"/>
+      <c r="A344" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B344" s="6" t="s">
         <v>686</v>
       </c>
@@ -22729,11 +23059,13 @@
       </c>
       <c r="D344" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15535116963891582</v>
+        <v>0.39775174498093457</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="150" customHeight="1">
-      <c r="A345" s="5"/>
+      <c r="A345" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B345" s="6" t="s">
         <v>688</v>
       </c>
@@ -22742,11 +23074,13 @@
       </c>
       <c r="D345" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17227443956858213</v>
+        <v>0.35639781474643062</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="150" customHeight="1">
-      <c r="A346" s="5"/>
+      <c r="A346" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B346" s="6" t="s">
         <v>690</v>
       </c>
@@ -22755,7 +23089,7 @@
       </c>
       <c r="D346" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93426105403170501</v>
+        <v>0.87289742301748674</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="150" customHeight="1">
@@ -22768,7 +23102,7 @@
       </c>
       <c r="D347" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16048019001217384</v>
+        <v>0.13775572160752225</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="150" customHeight="1">
@@ -22781,7 +23115,7 @@
       </c>
       <c r="D348" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61250730088157279</v>
+        <v>0.99563473795754975</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="150" customHeight="1">
@@ -22794,11 +23128,13 @@
       </c>
       <c r="D349" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57321141922505314</v>
+        <v>0.37407448648300456</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="150" customHeight="1">
-      <c r="A350" s="5"/>
+      <c r="A350" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B350" s="6" t="s">
         <v>698</v>
       </c>
@@ -22807,11 +23143,13 @@
       </c>
       <c r="D350" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66675461813235914</v>
+        <v>0.60371913675447353</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="150" customHeight="1">
-      <c r="A351" s="5"/>
+      <c r="A351" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B351" s="6" t="s">
         <v>700</v>
       </c>
@@ -22820,11 +23158,13 @@
       </c>
       <c r="D351" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12287855300594885</v>
+        <v>0.67333035029212074</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="150" customHeight="1">
-      <c r="A352" s="5"/>
+      <c r="A352" s="11" t="s">
+        <v>1028</v>
+      </c>
       <c r="B352" s="6" t="s">
         <v>702</v>
       </c>
@@ -22833,11 +23173,13 @@
       </c>
       <c r="D352" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.36685558409649999</v>
+        <v>0.61207635404505223</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="150" customHeight="1">
-      <c r="A353" s="5"/>
+      <c r="A353" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B353" s="6" t="s">
         <v>704</v>
       </c>
@@ -22846,11 +23188,13 @@
       </c>
       <c r="D353" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54997470562274975</v>
+        <v>0.96384389852007057</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="150" customHeight="1">
-      <c r="A354" s="5"/>
+      <c r="A354" s="11" t="s">
+        <v>1026</v>
+      </c>
       <c r="B354" s="6" t="s">
         <v>706</v>
       </c>
@@ -22859,11 +23203,13 @@
       </c>
       <c r="D354" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12539820041907213</v>
+        <v>3.4638871796834447E-2</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="150" customHeight="1">
-      <c r="A355" s="5"/>
+      <c r="A355" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B355" s="6" t="s">
         <v>708</v>
       </c>
@@ -22872,11 +23218,13 @@
       </c>
       <c r="D355" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22013451553466279</v>
+        <v>0.93422873623943259</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="150" customHeight="1">
-      <c r="A356" s="5"/>
+      <c r="A356" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B356" s="6" t="s">
         <v>710</v>
       </c>
@@ -22885,7 +23233,7 @@
       </c>
       <c r="D356" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25019595608071121</v>
+        <v>0.42086752473206424</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="150" customHeight="1">
@@ -22898,11 +23246,13 @@
       </c>
       <c r="D357" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38976023573940188</v>
+        <v>0.61233580282541489</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="150" customHeight="1">
-      <c r="A358" s="5"/>
+      <c r="A358" s="11" t="s">
+        <v>1037</v>
+      </c>
       <c r="B358" s="6" t="s">
         <v>714</v>
       </c>
@@ -22911,11 +23261,13 @@
       </c>
       <c r="D358" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41122909847512323</v>
+        <v>0.7688606918362112</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="150" customHeight="1">
-      <c r="A359" s="5"/>
+      <c r="A359" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B359" s="6" t="s">
         <v>716</v>
       </c>
@@ -22924,11 +23276,13 @@
       </c>
       <c r="D359" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13129977166282292</v>
+        <v>0.55029328403296462</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="150" customHeight="1">
-      <c r="A360" s="5"/>
+      <c r="A360" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B360" s="6" t="s">
         <v>718</v>
       </c>
@@ -22937,7 +23291,7 @@
       </c>
       <c r="D360" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32559706449318937</v>
+        <v>0.25771320664764974</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="150" customHeight="1">
@@ -22950,7 +23304,7 @@
       </c>
       <c r="D361" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72526885766150906</v>
+        <v>0.35440527831619606</v>
       </c>
     </row>
     <row r="362" spans="1:4" ht="150" customHeight="1">
@@ -22963,11 +23317,13 @@
       </c>
       <c r="D362" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15883238187649484</v>
+        <v>0.87314007037694663</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="150" customHeight="1">
-      <c r="A363" s="5"/>
+      <c r="A363" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B363" s="6" t="s">
         <v>724</v>
       </c>
@@ -22976,11 +23332,13 @@
       </c>
       <c r="D363" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12091294915356521</v>
+        <v>0.10320208673551101</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="150" customHeight="1">
-      <c r="A364" s="5"/>
+      <c r="A364" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="B364" s="6" t="s">
         <v>726</v>
       </c>
@@ -22989,7 +23347,7 @@
       </c>
       <c r="D364" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15844176069260663</v>
+        <v>0.83388028820016769</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="150" customHeight="1">
@@ -23002,11 +23360,13 @@
       </c>
       <c r="D365" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18535267064186367</v>
+        <v>0.40803179398922684</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="150" customHeight="1">
-      <c r="A366" s="5"/>
+      <c r="A366" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B366" s="6" t="s">
         <v>730</v>
       </c>
@@ -23015,7 +23375,7 @@
       </c>
       <c r="D366" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7857096107232886E-2</v>
+        <v>0.69450050425109655</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="150" customHeight="1">
@@ -23028,11 +23388,13 @@
       </c>
       <c r="D367" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37357945298718009</v>
+        <v>0.38836120211283409</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="150" customHeight="1">
-      <c r="A368" s="5"/>
+      <c r="A368" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B368" s="6" t="s">
         <v>734</v>
       </c>
@@ -23041,11 +23403,13 @@
       </c>
       <c r="D368" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19852716946099203</v>
+        <v>0.78399614513877858</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="150" customHeight="1">
-      <c r="A369" s="5"/>
+      <c r="A369" s="11" t="s">
+        <v>1038</v>
+      </c>
       <c r="B369" s="6" t="s">
         <v>736</v>
       </c>
@@ -23054,11 +23418,13 @@
       </c>
       <c r="D369" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.70462540381024641</v>
+        <v>4.0298577310893147E-2</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="150" customHeight="1">
-      <c r="A370" s="5"/>
+      <c r="A370" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B370" s="6" t="s">
         <v>738</v>
       </c>
@@ -23067,11 +23433,13 @@
       </c>
       <c r="D370" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69084342396450504</v>
+        <v>7.8810040679865634E-2</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="150" customHeight="1">
-      <c r="A371" s="5"/>
+      <c r="A371" s="11" t="s">
+        <v>1038</v>
+      </c>
       <c r="B371" s="6" t="s">
         <v>740</v>
       </c>
@@ -23080,11 +23448,13 @@
       </c>
       <c r="D371" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5291326847188681</v>
+        <v>0.79175509387795828</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="150" customHeight="1">
-      <c r="A372" s="5"/>
+      <c r="A372" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B372" s="6" t="s">
         <v>742</v>
       </c>
@@ -23093,11 +23463,13 @@
       </c>
       <c r="D372" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88500458134092808</v>
+        <v>5.9454018854099067E-2</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="150" customHeight="1">
-      <c r="A373" s="5"/>
+      <c r="A373" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="B373" s="6" t="s">
         <v>744</v>
       </c>
@@ -23106,11 +23478,13 @@
       </c>
       <c r="D373" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1973603486493833E-2</v>
+        <v>0.28859630807382186</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="150" customHeight="1">
-      <c r="A374" s="5"/>
+      <c r="A374" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B374" s="6" t="s">
         <v>746</v>
       </c>
@@ -23119,11 +23493,13 @@
       </c>
       <c r="D374" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.92234671624180242</v>
+        <v>0.21850234145526981</v>
       </c>
     </row>
     <row r="375" spans="1:4" ht="150" customHeight="1">
-      <c r="A375" s="5"/>
+      <c r="A375" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B375" s="6" t="s">
         <v>748</v>
       </c>
@@ -23132,7 +23508,7 @@
       </c>
       <c r="D375" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.8789530569132421</v>
+        <v>0.76595601954184178</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="150" customHeight="1">
@@ -23145,7 +23521,7 @@
       </c>
       <c r="D376" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6699876778785423</v>
+        <v>0.23864860303814961</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="150" customHeight="1">
@@ -23158,11 +23534,13 @@
       </c>
       <c r="D377" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.11252338376497184</v>
+        <v>0.33310660530758651</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="150" customHeight="1">
-      <c r="A378" s="5"/>
+      <c r="A378" s="11" t="s">
+        <v>1038</v>
+      </c>
       <c r="B378" s="6" t="s">
         <v>754</v>
       </c>
@@ -23171,11 +23549,13 @@
       </c>
       <c r="D378" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54247926589747986</v>
+        <v>0.32748626858152197</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="150" customHeight="1">
-      <c r="A379" s="5"/>
+      <c r="A379" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B379" s="6" t="s">
         <v>756</v>
       </c>
@@ -23184,11 +23564,13 @@
       </c>
       <c r="D379" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15573225768639753</v>
+        <v>0.34748367286383197</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="150" customHeight="1">
-      <c r="A380" s="5"/>
+      <c r="A380" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="B380" s="6" t="s">
         <v>758</v>
       </c>
@@ -23197,11 +23579,13 @@
       </c>
       <c r="D380" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76464916325706944</v>
+        <v>0.78440493211073303</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="150" customHeight="1">
-      <c r="A381" s="5"/>
+      <c r="A381" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B381" s="6" t="s">
         <v>760</v>
       </c>
@@ -23210,11 +23594,13 @@
       </c>
       <c r="D381" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.7079704622533336</v>
+        <v>0.49979174116726632</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="150" customHeight="1">
-      <c r="A382" s="5"/>
+      <c r="A382" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B382" s="6" t="s">
         <v>762</v>
       </c>
@@ -23223,11 +23609,13 @@
       </c>
       <c r="D382" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.50449402900562712</v>
+        <v>0.77416907684702818</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="150" customHeight="1">
-      <c r="A383" s="5"/>
+      <c r="A383" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B383" s="6" t="s">
         <v>764</v>
       </c>
@@ -23236,11 +23624,13 @@
       </c>
       <c r="D383" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.70749237419916478</v>
+        <v>0.16812947829140323</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="150" customHeight="1">
-      <c r="A384" s="5"/>
+      <c r="A384" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B384" s="6" t="s">
         <v>766</v>
       </c>
@@ -23249,11 +23639,13 @@
       </c>
       <c r="D384" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15168197657165772</v>
+        <v>0.42308744905425699</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="150" customHeight="1">
-      <c r="A385" s="5"/>
+      <c r="A385" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="B385" s="6" t="s">
         <v>768</v>
       </c>
@@ -23262,11 +23654,13 @@
       </c>
       <c r="D385" s="8">
         <f t="shared" ref="D385:D447" ca="1" si="6">RAND()*1</f>
-        <v>5.7247489797936146E-2</v>
+        <v>0.79889010329418797</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="150" customHeight="1">
-      <c r="A386" s="5"/>
+      <c r="A386" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B386" s="6" t="s">
         <v>770</v>
       </c>
@@ -23275,11 +23669,13 @@
       </c>
       <c r="D386" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.80693723414848761</v>
+        <v>0.4490777910153948</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="150" customHeight="1">
-      <c r="A387" s="5"/>
+      <c r="A387" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B387" s="6" t="s">
         <v>772</v>
       </c>
@@ -23288,11 +23684,13 @@
       </c>
       <c r="D387" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.36000333231455017</v>
+        <v>0.18456765588409385</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="150" customHeight="1">
-      <c r="A388" s="5"/>
+      <c r="A388" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B388" s="6" t="s">
         <v>774</v>
       </c>
@@ -23301,11 +23699,13 @@
       </c>
       <c r="D388" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.46175581698844803</v>
+        <v>0.19707361400604895</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="150" customHeight="1">
-      <c r="A389" s="5"/>
+      <c r="A389" s="11" t="s">
+        <v>1039</v>
+      </c>
       <c r="B389" s="6" t="s">
         <v>776</v>
       </c>
@@ -23314,11 +23714,13 @@
       </c>
       <c r="D389" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7158256815782229E-2</v>
+        <v>2.3360436402620199E-2</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="150" customHeight="1">
-      <c r="A390" s="5"/>
+      <c r="A390" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="B390" s="6" t="s">
         <v>778</v>
       </c>
@@ -23327,11 +23729,13 @@
       </c>
       <c r="D390" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.92589330150730198</v>
+        <v>0.32822975890447836</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="150" customHeight="1">
-      <c r="A391" s="5"/>
+      <c r="A391" s="11" t="s">
+        <v>1040</v>
+      </c>
       <c r="B391" s="6" t="s">
         <v>780</v>
       </c>
@@ -23340,11 +23744,13 @@
       </c>
       <c r="D391" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.73900177504127318</v>
+        <v>0.32583429820830112</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="150" customHeight="1">
-      <c r="A392" s="5"/>
+      <c r="A392" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B392" s="6" t="s">
         <v>782</v>
       </c>
@@ -23353,7 +23759,7 @@
       </c>
       <c r="D392" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.9688524801617443</v>
+        <v>0.58547250769644466</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="150" customHeight="1">
@@ -23366,7 +23772,7 @@
       </c>
       <c r="D393" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81628782484533569</v>
+        <v>0.68543694415584444</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="150" customHeight="1">
@@ -23379,11 +23785,13 @@
       </c>
       <c r="D394" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>8.4666950701399846E-2</v>
+        <v>0.38319118642061578</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="150" customHeight="1">
-      <c r="A395" s="5"/>
+      <c r="A395" s="11" t="s">
+        <v>1041</v>
+      </c>
       <c r="B395" s="6" t="s">
         <v>788</v>
       </c>
@@ -23392,11 +23800,13 @@
       </c>
       <c r="D395" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18867717006287998</v>
+        <v>0.7026820593697074</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="150" customHeight="1">
-      <c r="A396" s="5"/>
+      <c r="A396" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B396" s="6" t="s">
         <v>790</v>
       </c>
@@ -23405,7 +23815,7 @@
       </c>
       <c r="D396" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13948551902744954</v>
+        <v>0.63959303468940965</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="150" customHeight="1">
@@ -23418,11 +23828,13 @@
       </c>
       <c r="D397" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84549467896128838</v>
+        <v>0.57165394959737981</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="150" customHeight="1">
-      <c r="A398" s="5"/>
+      <c r="A398" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B398" s="6" t="s">
         <v>794</v>
       </c>
@@ -23431,11 +23843,13 @@
       </c>
       <c r="D398" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.30275176298701956</v>
+        <v>0.85902759188425348</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="150" customHeight="1">
-      <c r="A399" s="5"/>
+      <c r="A399" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B399" s="6" t="s">
         <v>796</v>
       </c>
@@ -23444,11 +23858,13 @@
       </c>
       <c r="D399" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.7396170108687945</v>
+        <v>0.651499113644738</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="150" customHeight="1">
-      <c r="A400" s="5"/>
+      <c r="A400" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B400" s="6" t="s">
         <v>798</v>
       </c>
@@ -23457,11 +23873,13 @@
       </c>
       <c r="D400" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58198350994087444</v>
+        <v>9.0510720361041797E-2</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="150" customHeight="1">
-      <c r="A401" s="5"/>
+      <c r="A401" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B401" s="6" t="s">
         <v>800</v>
       </c>
@@ -23470,11 +23888,13 @@
       </c>
       <c r="D401" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49953370846551193</v>
+        <v>0.45999243513872845</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="150" customHeight="1">
-      <c r="A402" s="5"/>
+      <c r="A402" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B402" s="6" t="s">
         <v>802</v>
       </c>
@@ -23483,11 +23903,13 @@
       </c>
       <c r="D402" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1196344543698666E-2</v>
+        <v>0.56900246412400601</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="150" customHeight="1">
-      <c r="A403" s="5"/>
+      <c r="A403" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B403" s="6" t="s">
         <v>804</v>
       </c>
@@ -23496,11 +23918,13 @@
       </c>
       <c r="D403" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.46330748310103542</v>
+        <v>0.37175626008401497</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="150" customHeight="1">
-      <c r="A404" s="5"/>
+      <c r="A404" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="B404" s="6" t="s">
         <v>806</v>
       </c>
@@ -23509,11 +23933,13 @@
       </c>
       <c r="D404" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.86520608092517304</v>
+        <v>4.9442297127651136E-2</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="150" customHeight="1">
-      <c r="A405" s="5"/>
+      <c r="A405" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B405" s="6" t="s">
         <v>808</v>
       </c>
@@ -23522,11 +23948,13 @@
       </c>
       <c r="D405" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0639541773154244E-2</v>
+        <v>2.729441525054499E-2</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="150" customHeight="1">
-      <c r="A406" s="5"/>
+      <c r="A406" s="11" t="s">
+        <v>1037</v>
+      </c>
       <c r="B406" s="6" t="s">
         <v>810</v>
       </c>
@@ -23535,11 +23963,13 @@
       </c>
       <c r="D406" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.11203397216140798</v>
+        <v>0.2631217701980304</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="150" customHeight="1">
-      <c r="A407" s="5"/>
+      <c r="A407" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B407" s="6" t="s">
         <v>812</v>
       </c>
@@ -23548,11 +23978,13 @@
       </c>
       <c r="D407" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84408596456227236</v>
+        <v>0.18784401758001779</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="150" customHeight="1">
-      <c r="A408" s="5"/>
+      <c r="A408" s="11" t="s">
+        <v>1042</v>
+      </c>
       <c r="B408" s="6" t="s">
         <v>814</v>
       </c>
@@ -23561,11 +23993,13 @@
       </c>
       <c r="D408" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.87231047809130191</v>
+        <v>0.78995876137057786</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="150" customHeight="1">
-      <c r="A409" s="5"/>
+      <c r="A409" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B409" s="6" t="s">
         <v>816</v>
       </c>
@@ -23574,11 +24008,13 @@
       </c>
       <c r="D409" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.77746730641108586</v>
+        <v>0.1306632132675648</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="150" customHeight="1">
-      <c r="A410" s="5"/>
+      <c r="A410" s="11" t="s">
+        <v>1042</v>
+      </c>
       <c r="B410" s="6" t="s">
         <v>818</v>
       </c>
@@ -23587,11 +24023,13 @@
       </c>
       <c r="D410" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.46453139519853603</v>
+        <v>0.5695169048878238</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="150" customHeight="1">
-      <c r="A411" s="5"/>
+      <c r="A411" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B411" s="6" t="s">
         <v>820</v>
       </c>
@@ -23600,11 +24038,13 @@
       </c>
       <c r="D411" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9296708833718625E-2</v>
+        <v>0.35633903258109567</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="150" customHeight="1">
-      <c r="A412" s="5"/>
+      <c r="A412" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B412" s="6" t="s">
         <v>822</v>
       </c>
@@ -23613,11 +24053,13 @@
       </c>
       <c r="D412" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.7927185559860741</v>
+        <v>0.9715208052688209</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="150" customHeight="1">
-      <c r="A413" s="5"/>
+      <c r="A413" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B413" s="6" t="s">
         <v>824</v>
       </c>
@@ -23626,11 +24068,13 @@
       </c>
       <c r="D413" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2140237726253752</v>
+        <v>0.14814507752716799</v>
       </c>
     </row>
     <row r="414" spans="1:4" s="1" customFormat="1" ht="150" customHeight="1">
-      <c r="A414" s="5"/>
+      <c r="A414" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B414" s="6" t="s">
         <v>826</v>
       </c>
@@ -23639,11 +24083,13 @@
       </c>
       <c r="D414" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.52533391749382763</v>
+        <v>0.76974883213544487</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="150" customHeight="1">
-      <c r="A415" s="5"/>
+      <c r="A415" s="11" t="s">
+        <v>1043</v>
+      </c>
       <c r="B415" s="6" t="s">
         <v>828</v>
       </c>
@@ -23652,11 +24098,13 @@
       </c>
       <c r="D415" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.77524332693611031</v>
+        <v>0.46618414248980045</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="150" customHeight="1">
-      <c r="A416" s="5"/>
+      <c r="A416" s="11" t="s">
+        <v>1037</v>
+      </c>
       <c r="B416" s="6" t="s">
         <v>830</v>
       </c>
@@ -23665,11 +24113,13 @@
       </c>
       <c r="D416" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53115904191153229</v>
+        <v>0.33478411270579211</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="150" customHeight="1">
-      <c r="A417" s="5"/>
+      <c r="A417" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B417" s="6" t="s">
         <v>832</v>
       </c>
@@ -23678,11 +24128,13 @@
       </c>
       <c r="D417" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19434048194752762</v>
+        <v>0.59178735508841829</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="150" customHeight="1">
-      <c r="A418" s="5"/>
+      <c r="A418" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B418" s="6" t="s">
         <v>834</v>
       </c>
@@ -23691,11 +24143,13 @@
       </c>
       <c r="D418" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.77146003807809393</v>
+        <v>0.32545848898846463</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="150" customHeight="1">
-      <c r="A419" s="5"/>
+      <c r="A419" s="11" t="s">
+        <v>1026</v>
+      </c>
       <c r="B419" s="6" t="s">
         <v>836</v>
       </c>
@@ -23704,11 +24158,13 @@
       </c>
       <c r="D419" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53446416508159122</v>
+        <v>0.61947167884653442</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="150" customHeight="1">
-      <c r="A420" s="5"/>
+      <c r="A420" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B420" s="6" t="s">
         <v>838</v>
       </c>
@@ -23717,11 +24173,13 @@
       </c>
       <c r="D420" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.79265802635929972</v>
+        <v>0.35361562631453902</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="150" customHeight="1">
-      <c r="A421" s="5"/>
+      <c r="A421" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B421" s="6" t="s">
         <v>840</v>
       </c>
@@ -23730,11 +24188,13 @@
       </c>
       <c r="D421" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.60364567099546895</v>
+        <v>0.92184780192903382</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="150" customHeight="1">
-      <c r="A422" s="5"/>
+      <c r="A422" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B422" s="6" t="s">
         <v>842</v>
       </c>
@@ -23743,11 +24203,13 @@
       </c>
       <c r="D422" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.92695644978232239</v>
+        <v>0.78456520863659351</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="150" customHeight="1">
-      <c r="A423" s="5"/>
+      <c r="A423" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B423" s="6" t="s">
         <v>844</v>
       </c>
@@ -23756,11 +24218,13 @@
       </c>
       <c r="D423" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.74574927273586133</v>
+        <v>2.6988545342752301E-2</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="150" customHeight="1">
-      <c r="A424" s="5"/>
+      <c r="A424" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B424" s="6" t="s">
         <v>846</v>
       </c>
@@ -23769,11 +24233,13 @@
       </c>
       <c r="D424" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39499104396032714</v>
+        <v>0.38828698433504505</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="150" customHeight="1">
-      <c r="A425" s="5"/>
+      <c r="A425" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B425" s="6" t="s">
         <v>848</v>
       </c>
@@ -23782,11 +24248,13 @@
       </c>
       <c r="D425" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81716812189563259</v>
+        <v>0.94624674055483726</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="150" customHeight="1">
-      <c r="A426" s="5"/>
+      <c r="A426" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B426" s="6" t="s">
         <v>850</v>
       </c>
@@ -23795,11 +24263,13 @@
       </c>
       <c r="D426" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.34486865416964751</v>
+        <v>0.62013533050849878</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="150" customHeight="1">
-      <c r="A427" s="5"/>
+      <c r="A427" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B427" s="6" t="s">
         <v>852</v>
       </c>
@@ -23808,11 +24278,13 @@
       </c>
       <c r="D427" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.28888990013114502</v>
+        <v>0.32028736529365387</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="150" customHeight="1">
-      <c r="A428" s="5"/>
+      <c r="A428" s="11" t="s">
+        <v>1044</v>
+      </c>
       <c r="B428" s="6" t="s">
         <v>854</v>
       </c>
@@ -23821,11 +24293,13 @@
       </c>
       <c r="D428" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53817106243762347</v>
+        <v>0.3095130269520292</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="150" customHeight="1">
-      <c r="A429" s="5"/>
+      <c r="A429" s="11" t="s">
+        <v>1026</v>
+      </c>
       <c r="B429" s="6" t="s">
         <v>856</v>
       </c>
@@ -23834,11 +24308,13 @@
       </c>
       <c r="D429" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.54021497479062253</v>
+        <v>0.58661852330647712</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="150" customHeight="1">
-      <c r="A430" s="5"/>
+      <c r="A430" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B430" s="6" t="s">
         <v>858</v>
       </c>
@@ -23847,11 +24323,13 @@
       </c>
       <c r="D430" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27348348781213705</v>
+        <v>0.17310387492307966</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="150" customHeight="1">
-      <c r="A431" s="5"/>
+      <c r="A431" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B431" s="6" t="s">
         <v>860</v>
       </c>
@@ -23860,11 +24338,13 @@
       </c>
       <c r="D431" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.78557606004126268</v>
+        <v>0.6006439080670094</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="150" customHeight="1">
-      <c r="A432" s="5"/>
+      <c r="A432" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B432" s="6" t="s">
         <v>862</v>
       </c>
@@ -23873,11 +24353,13 @@
       </c>
       <c r="D432" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.67681705535466319</v>
+        <v>0.72426384571866553</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="150" customHeight="1">
-      <c r="A433" s="5"/>
+      <c r="A433" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B433" s="6" t="s">
         <v>864</v>
       </c>
@@ -23886,11 +24368,13 @@
       </c>
       <c r="D433" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.22813446251204572</v>
+        <v>0.88963216329679284</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="150" customHeight="1">
-      <c r="A434" s="5"/>
+      <c r="A434" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B434" s="6" t="s">
         <v>866</v>
       </c>
@@ -23899,7 +24383,7 @@
       </c>
       <c r="D434" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.9152762597438896</v>
+        <v>0.81229042380787142</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="150" customHeight="1">
@@ -23912,11 +24396,13 @@
       </c>
       <c r="D435" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.74894906643976467</v>
+        <v>1.6606825818918147E-2</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="150" customHeight="1">
-      <c r="A436" s="5"/>
+      <c r="A436" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B436" s="6" t="s">
         <v>870</v>
       </c>
@@ -23925,11 +24411,13 @@
       </c>
       <c r="D436" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.92790635816041267</v>
+        <v>0.71006923041668168</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="150" customHeight="1">
-      <c r="A437" s="5"/>
+      <c r="A437" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B437" s="6" t="s">
         <v>872</v>
       </c>
@@ -23938,11 +24426,13 @@
       </c>
       <c r="D437" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.42335420648626609</v>
+        <v>0.81609404524299622</v>
       </c>
     </row>
     <row r="438" spans="1:4" ht="150" customHeight="1">
-      <c r="A438" s="5"/>
+      <c r="A438" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B438" s="6" t="s">
         <v>874</v>
       </c>
@@ -23951,11 +24441,13 @@
       </c>
       <c r="D438" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.23499021993273406</v>
+        <v>0.90888047955846107</v>
       </c>
     </row>
     <row r="439" spans="1:4" ht="150" customHeight="1">
-      <c r="A439" s="5"/>
+      <c r="A439" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B439" s="6" t="s">
         <v>876</v>
       </c>
@@ -23964,11 +24456,13 @@
       </c>
       <c r="D439" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.6194586109384308</v>
+        <v>0.81403099502398013</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="150" customHeight="1">
-      <c r="A440" s="5"/>
+      <c r="A440" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B440" s="6" t="s">
         <v>878</v>
       </c>
@@ -23977,11 +24471,13 @@
       </c>
       <c r="D440" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.77797376060263523</v>
+        <v>0.39471736947792069</v>
       </c>
     </row>
     <row r="441" spans="1:4" ht="150" customHeight="1">
-      <c r="A441" s="5"/>
+      <c r="A441" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B441" s="6" t="s">
         <v>880</v>
       </c>
@@ -23990,7 +24486,7 @@
       </c>
       <c r="D441" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.92375708030687598</v>
+        <v>7.7703098193949716E-3</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="150" customHeight="1">
@@ -24003,7 +24499,7 @@
       </c>
       <c r="D442" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.30105345097797087</v>
+        <v>2.7446880159068932E-2</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="150" customHeight="1">
@@ -24016,7 +24512,7 @@
       </c>
       <c r="D443" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.93787820007849609</v>
+        <v>0.99741376331999265</v>
       </c>
     </row>
     <row r="444" spans="1:4" ht="150" customHeight="1">
@@ -24029,11 +24525,13 @@
       </c>
       <c r="D444" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.35198607941256632</v>
+        <v>0.14453197681186369</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="150" customHeight="1">
-      <c r="A445" s="5"/>
+      <c r="A445" s="11" t="s">
+        <v>1023</v>
+      </c>
       <c r="B445" s="6" t="s">
         <v>888</v>
       </c>
@@ -24042,11 +24540,13 @@
       </c>
       <c r="D445" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.37408911794956812</v>
+        <v>3.2404489550967863E-2</v>
       </c>
     </row>
     <row r="446" spans="1:4" ht="150" customHeight="1">
-      <c r="A446" s="5"/>
+      <c r="A446" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B446" s="6" t="s">
         <v>890</v>
       </c>
@@ -24055,7 +24555,7 @@
       </c>
       <c r="D446" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24816308045689461</v>
+        <v>0.2428263683386358</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="150" customHeight="1">
@@ -24068,7 +24568,7 @@
       </c>
       <c r="D447" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66526811056602075</v>
+        <v>0.13100182619538903</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="150" customHeight="1">
@@ -24081,11 +24581,13 @@
       </c>
       <c r="D448" s="8">
         <f t="shared" ref="D448:D500" ca="1" si="7">RAND()*1</f>
-        <v>0.55098177363413081</v>
+        <v>0.62207790513500438</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="150" customHeight="1">
-      <c r="A449" s="5"/>
+      <c r="A449" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B449" s="6" t="s">
         <v>896</v>
       </c>
@@ -24094,11 +24596,13 @@
       </c>
       <c r="D449" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.74189578989787808</v>
+        <v>0.55918245229036845</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="150" customHeight="1">
-      <c r="A450" s="5"/>
+      <c r="A450" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B450" s="6" t="s">
         <v>898</v>
       </c>
@@ -24107,11 +24611,13 @@
       </c>
       <c r="D450" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32467752880177636</v>
+        <v>0.14018771425964605</v>
       </c>
     </row>
     <row r="451" spans="1:4" ht="150" customHeight="1">
-      <c r="A451" s="5"/>
+      <c r="A451" s="11" t="s">
+        <v>1045</v>
+      </c>
       <c r="B451" s="6" t="s">
         <v>900</v>
       </c>
@@ -24120,11 +24626,13 @@
       </c>
       <c r="D451" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.81169778507071377</v>
+        <v>0.78145094562975537</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="150" customHeight="1">
-      <c r="A452" s="5"/>
+      <c r="A452" s="11" t="s">
+        <v>1045</v>
+      </c>
       <c r="B452" s="6" t="s">
         <v>902</v>
       </c>
@@ -24133,11 +24641,13 @@
       </c>
       <c r="D452" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32038113169480165</v>
+        <v>0.74862357861842599</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="150" customHeight="1">
-      <c r="A453" s="5"/>
+      <c r="A453" s="11" t="s">
+        <v>1045</v>
+      </c>
       <c r="B453" s="6" t="s">
         <v>904</v>
       </c>
@@ -24146,11 +24656,13 @@
       </c>
       <c r="D453" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17639512293543902</v>
+        <v>0.83552275943727194</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="150" customHeight="1">
-      <c r="A454" s="5"/>
+      <c r="A454" s="11" t="s">
+        <v>1045</v>
+      </c>
       <c r="B454" s="6" t="s">
         <v>906</v>
       </c>
@@ -24159,11 +24671,13 @@
       </c>
       <c r="D454" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.37741544626562729</v>
+        <v>0.79270863681601911</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="150" customHeight="1">
-      <c r="A455" s="5"/>
+      <c r="A455" s="11" t="s">
+        <v>1026</v>
+      </c>
       <c r="B455" s="6" t="s">
         <v>908</v>
       </c>
@@ -24172,11 +24686,13 @@
       </c>
       <c r="D455" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.56644169477417605</v>
+        <v>0.40196319204345166</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="150" customHeight="1">
-      <c r="A456" s="5"/>
+      <c r="A456" s="11" t="s">
+        <v>1045</v>
+      </c>
       <c r="B456" s="6" t="s">
         <v>910</v>
       </c>
@@ -24185,11 +24701,13 @@
       </c>
       <c r="D456" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.19623705916585288</v>
+        <v>0.17117995401244379</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="150" customHeight="1">
-      <c r="A457" s="5"/>
+      <c r="A457" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B457" s="6" t="s">
         <v>912</v>
       </c>
@@ -24198,11 +24716,13 @@
       </c>
       <c r="D457" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6972194867233501E-2</v>
+        <v>0.13394522394126063</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="150" customHeight="1">
-      <c r="A458" s="5"/>
+      <c r="A458" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B458" s="6" t="s">
         <v>914</v>
       </c>
@@ -24211,11 +24731,13 @@
       </c>
       <c r="D458" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.56362021549219787</v>
+        <v>0.38210259307643402</v>
       </c>
     </row>
     <row r="459" spans="1:4" s="2" customFormat="1" ht="150" customHeight="1">
-      <c r="A459" s="5"/>
+      <c r="A459" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B459" s="6" t="s">
         <v>916</v>
       </c>
@@ -24224,7 +24746,7 @@
       </c>
       <c r="D459" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.37180357184132573</v>
+        <v>0.96221721090986378</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="150" customHeight="1">
@@ -24237,7 +24759,7 @@
       </c>
       <c r="D460" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.36971751643206863</v>
+        <v>0.87164731057354095</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="150" customHeight="1">
@@ -24250,11 +24772,13 @@
       </c>
       <c r="D461" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3273622040887223E-2</v>
+        <v>0.85958577783113232</v>
       </c>
     </row>
     <row r="462" spans="1:4" s="2" customFormat="1" ht="150" customHeight="1">
-      <c r="A462" s="5"/>
+      <c r="A462" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B462" s="6" t="s">
         <v>922</v>
       </c>
@@ -24263,11 +24787,13 @@
       </c>
       <c r="D462" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.95138255362164748</v>
+        <v>8.772979052563723E-2</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="150" customHeight="1">
-      <c r="A463" s="5"/>
+      <c r="A463" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B463" s="6" t="s">
         <v>924</v>
       </c>
@@ -24276,11 +24802,13 @@
       </c>
       <c r="D463" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22145311904240206</v>
+        <v>0.30292412294061599</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="150" customHeight="1">
-      <c r="A464" s="5"/>
+      <c r="A464" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B464" s="6" t="s">
         <v>926</v>
       </c>
@@ -24289,11 +24817,13 @@
       </c>
       <c r="D464" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.23557425171634327</v>
+        <v>0.14020600060029553</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="150" customHeight="1">
-      <c r="A465" s="5"/>
+      <c r="A465" s="11" t="s">
+        <v>1027</v>
+      </c>
       <c r="B465" s="6" t="s">
         <v>928</v>
       </c>
@@ -24302,11 +24832,13 @@
       </c>
       <c r="D465" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.74241820262551483</v>
+        <v>0.37507892663184816</v>
       </c>
     </row>
     <row r="466" spans="1:4" ht="150" customHeight="1">
-      <c r="A466" s="5"/>
+      <c r="A466" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B466" s="6" t="s">
         <v>930</v>
       </c>
@@ -24315,11 +24847,13 @@
       </c>
       <c r="D466" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4042772742563825E-2</v>
+        <v>0.52837667927919463</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="150" customHeight="1">
-      <c r="A467" s="5"/>
+      <c r="A467" s="11" t="s">
+        <v>1045</v>
+      </c>
       <c r="B467" s="6" t="s">
         <v>932</v>
       </c>
@@ -24328,11 +24862,13 @@
       </c>
       <c r="D467" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.69287398130256828</v>
+        <v>0.10548091292652251</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="150" customHeight="1">
-      <c r="A468" s="5"/>
+      <c r="A468" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B468" s="6" t="s">
         <v>934</v>
       </c>
@@ -24341,11 +24877,13 @@
       </c>
       <c r="D468" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.24375214295356229</v>
+        <v>0.92197031864191104</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="150" customHeight="1">
-      <c r="A469" s="5"/>
+      <c r="A469" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B469" s="6" t="s">
         <v>936</v>
       </c>
@@ -24354,11 +24892,13 @@
       </c>
       <c r="D469" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.72613171717269043</v>
+        <v>0.62723436338728988</v>
       </c>
     </row>
     <row r="470" spans="1:4" ht="150" customHeight="1">
-      <c r="A470" s="5"/>
+      <c r="A470" s="11" t="s">
+        <v>1046</v>
+      </c>
       <c r="B470" s="6" t="s">
         <v>938</v>
       </c>
@@ -24367,11 +24907,13 @@
       </c>
       <c r="D470" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.47372397246121301</v>
+        <v>0.21606789106061342</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="150" customHeight="1">
-      <c r="A471" s="5"/>
+      <c r="A471" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B471" s="6" t="s">
         <v>940</v>
       </c>
@@ -24380,11 +24922,13 @@
       </c>
       <c r="D471" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.56974173486915847</v>
+        <v>0.71935351496630162</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="150" customHeight="1">
-      <c r="A472" s="5"/>
+      <c r="A472" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B472" s="6" t="s">
         <v>942</v>
       </c>
@@ -24393,11 +24937,13 @@
       </c>
       <c r="D472" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.92796378798771617</v>
+        <v>0.90233810481965038</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="150" customHeight="1">
-      <c r="A473" s="5"/>
+      <c r="A473" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B473" s="6" t="s">
         <v>944</v>
       </c>
@@ -24406,11 +24952,13 @@
       </c>
       <c r="D473" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.2307352252172935</v>
+        <v>0.57811902626813927</v>
       </c>
     </row>
     <row r="474" spans="1:4" ht="150" customHeight="1">
-      <c r="A474" s="5"/>
+      <c r="A474" s="11" t="s">
+        <v>1045</v>
+      </c>
       <c r="B474" s="6" t="s">
         <v>946</v>
       </c>
@@ -24419,11 +24967,13 @@
       </c>
       <c r="D474" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.15270671069850139</v>
+        <v>0.90922275440726719</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="150" customHeight="1">
-      <c r="A475" s="5"/>
+      <c r="A475" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B475" s="6" t="s">
         <v>948</v>
       </c>
@@ -24432,11 +24982,13 @@
       </c>
       <c r="D475" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.57655619976294747</v>
+        <v>0.48016202573756694</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="150" customHeight="1">
-      <c r="A476" s="5"/>
+      <c r="A476" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B476" s="6" t="s">
         <v>950</v>
       </c>
@@ -24445,11 +24997,13 @@
       </c>
       <c r="D476" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.29103213161615971</v>
+        <v>9.7317264557393979E-2</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="150" customHeight="1">
-      <c r="A477" s="5"/>
+      <c r="A477" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B477" s="6" t="s">
         <v>952</v>
       </c>
@@ -24458,11 +25012,13 @@
       </c>
       <c r="D477" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.82107307244539141</v>
+        <v>5.6004849310734794E-2</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="150" customHeight="1">
-      <c r="A478" s="5"/>
+      <c r="A478" s="11" t="s">
+        <v>1026</v>
+      </c>
       <c r="B478" s="6" t="s">
         <v>954</v>
       </c>
@@ -24471,7 +25027,7 @@
       </c>
       <c r="D478" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.581853341010654</v>
+        <v>0.69546632054485624</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="150" customHeight="1">
@@ -24484,11 +25040,13 @@
       </c>
       <c r="D479" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.9727299097365163</v>
+        <v>0.31392706593759356</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="150" customHeight="1">
-      <c r="A480" s="5"/>
+      <c r="A480" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="B480" s="6" t="s">
         <v>958</v>
       </c>
@@ -24497,7 +25055,7 @@
       </c>
       <c r="D480" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.74162791907791814</v>
+        <v>0.89492822180999587</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="150" customHeight="1">
@@ -24510,11 +25068,13 @@
       </c>
       <c r="D481" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.71592446307667879</v>
+        <v>0.90589527859782637</v>
       </c>
     </row>
     <row r="482" spans="1:4" ht="150" customHeight="1">
-      <c r="A482" s="5"/>
+      <c r="A482" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="B482" s="6" t="s">
         <v>962</v>
       </c>
@@ -24523,11 +25083,13 @@
       </c>
       <c r="D482" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28938411954106047</v>
+        <v>0.43303731714779514</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="150" customHeight="1">
-      <c r="A483" s="5"/>
+      <c r="A483" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B483" s="6" t="s">
         <v>964</v>
       </c>
@@ -24536,11 +25098,13 @@
       </c>
       <c r="D483" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.46821924803021608</v>
+        <v>0.20268738409174658</v>
       </c>
     </row>
     <row r="484" spans="1:4" ht="150" customHeight="1">
-      <c r="A484" s="5"/>
+      <c r="A484" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B484" s="6" t="s">
         <v>966</v>
       </c>
@@ -24549,11 +25113,13 @@
       </c>
       <c r="D484" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.51719385767786041</v>
+        <v>0.46446613256394953</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="150" customHeight="1">
-      <c r="A485" s="5"/>
+      <c r="A485" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B485" s="6" t="s">
         <v>968</v>
       </c>
@@ -24562,7 +25128,7 @@
       </c>
       <c r="D485" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.65353819740201669</v>
+        <v>0.51723744492528922</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="150" customHeight="1">
@@ -24575,11 +25141,13 @@
       </c>
       <c r="D486" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.94899933411334825</v>
+        <v>0.12837932827268506</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="150" customHeight="1">
-      <c r="A487" s="5"/>
+      <c r="A487" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B487" s="6" t="s">
         <v>972</v>
       </c>
@@ -24588,11 +25156,13 @@
       </c>
       <c r="D487" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.34903661807434905</v>
+        <v>0.87832715904877023</v>
       </c>
     </row>
     <row r="488" spans="1:4" ht="150" customHeight="1">
-      <c r="A488" s="5"/>
+      <c r="A488" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B488" s="6" t="s">
         <v>974</v>
       </c>
@@ -24601,11 +25171,13 @@
       </c>
       <c r="D488" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.84007332424214343</v>
+        <v>0.76230064238936235</v>
       </c>
     </row>
     <row r="489" spans="1:4" ht="150" customHeight="1">
-      <c r="A489" s="5"/>
+      <c r="A489" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B489" s="6" t="s">
         <v>976</v>
       </c>
@@ -24614,11 +25186,13 @@
       </c>
       <c r="D489" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>3.4018840520755989E-2</v>
+        <v>0.56239298487695932</v>
       </c>
     </row>
     <row r="490" spans="1:4" ht="150" customHeight="1">
-      <c r="A490" s="5"/>
+      <c r="A490" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="B490" s="6" t="s">
         <v>978</v>
       </c>
@@ -24627,11 +25201,13 @@
       </c>
       <c r="D490" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.29168787846447886</v>
+        <v>0.15865378707932731</v>
       </c>
     </row>
     <row r="491" spans="1:4" ht="150" customHeight="1">
-      <c r="A491" s="5"/>
+      <c r="A491" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="B491" s="6" t="s">
         <v>980</v>
       </c>
@@ -24640,11 +25216,13 @@
       </c>
       <c r="D491" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.1167534700673365</v>
+        <v>0.80096316302007831</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="150" customHeight="1">
-      <c r="A492" s="5"/>
+      <c r="A492" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B492" s="6" t="s">
         <v>982</v>
       </c>
@@ -24653,11 +25231,13 @@
       </c>
       <c r="D492" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18549549989052161</v>
+        <v>0.40962483208386646</v>
       </c>
     </row>
     <row r="493" spans="1:4" ht="150" customHeight="1">
-      <c r="A493" s="5"/>
+      <c r="A493" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B493" s="6" t="s">
         <v>984</v>
       </c>
@@ -24666,11 +25246,13 @@
       </c>
       <c r="D493" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.33936910433702516</v>
+        <v>0.83673963500638171</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="150" customHeight="1">
-      <c r="A494" s="5"/>
+      <c r="A494" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B494" s="6" t="s">
         <v>986</v>
       </c>
@@ -24679,11 +25261,13 @@
       </c>
       <c r="D494" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.67844516488413142</v>
+        <v>0.66232826726821825</v>
       </c>
     </row>
     <row r="495" spans="1:4" ht="150" customHeight="1">
-      <c r="A495" s="5"/>
+      <c r="A495" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B495" s="6" t="s">
         <v>987</v>
       </c>
@@ -24692,11 +25276,13 @@
       </c>
       <c r="D495" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3376288628606342</v>
+        <v>0.6105018054367416</v>
       </c>
     </row>
     <row r="496" spans="1:4" ht="150" customHeight="1">
-      <c r="A496" s="5"/>
+      <c r="A496" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="B496" s="6" t="s">
         <v>989</v>
       </c>
@@ -24705,11 +25291,13 @@
       </c>
       <c r="D496" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.65772659126224664</v>
+        <v>0.49009155055509457</v>
       </c>
     </row>
     <row r="497" spans="1:4" ht="150" customHeight="1">
-      <c r="A497" s="5"/>
+      <c r="A497" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B497" s="6" t="s">
         <v>991</v>
       </c>
@@ -24718,11 +25306,13 @@
       </c>
       <c r="D497" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.41001568248706544</v>
+        <v>0.1128280290949244</v>
       </c>
     </row>
     <row r="498" spans="1:4" ht="150" customHeight="1">
-      <c r="A498" s="5"/>
+      <c r="A498" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="B498" s="6" t="s">
         <v>993</v>
       </c>
@@ -24731,11 +25321,13 @@
       </c>
       <c r="D498" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.63856410660762586</v>
+        <v>0.90517383136137319</v>
       </c>
     </row>
     <row r="499" spans="1:4" ht="150" customHeight="1">
-      <c r="A499" s="5"/>
+      <c r="A499" s="11" t="s">
+        <v>1032</v>
+      </c>
       <c r="B499" s="6" t="s">
         <v>995</v>
       </c>
@@ -24744,11 +25336,13 @@
       </c>
       <c r="D499" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.81925747991216857</v>
+        <v>0.9664150303906176</v>
       </c>
     </row>
     <row r="500" spans="1:4" ht="150" customHeight="1">
-      <c r="A500" s="5"/>
+      <c r="A500" s="11" t="s">
+        <v>1020</v>
+      </c>
       <c r="B500" s="6" t="s">
         <v>997</v>
       </c>
@@ -24757,7 +25351,7 @@
       </c>
       <c r="D500" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.37072475881481426</v>
+        <v>0.97260106510503175</v>
       </c>
     </row>
   </sheetData>
